--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 LA.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 LA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>Course</t>
   </si>
@@ -136,6 +136,18 @@
     <t>25.00%</t>
   </si>
   <si>
+    <t>ARAB-489</t>
+  </si>
+  <si>
+    <t>ARAB-491</t>
+  </si>
+  <si>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
     <t>COMM-203</t>
   </si>
   <si>
@@ -187,6 +199,18 @@
     <t>2.33%</t>
   </si>
   <si>
+    <t>LOCKHART L</t>
+  </si>
+  <si>
+    <t>41.67%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>WESNER K</t>
   </si>
   <si>
@@ -211,12 +235,6 @@
     <t>YADLIN S</t>
   </si>
   <si>
-    <t>16.67%</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
     <t>JAMES E</t>
   </si>
   <si>
@@ -226,9 +244,6 @@
     <t>12.50%</t>
   </si>
   <si>
-    <t>4.17%</t>
-  </si>
-  <si>
     <t>HINCK R</t>
   </si>
   <si>
@@ -238,15 +253,21 @@
     <t>71.43%</t>
   </si>
   <si>
+    <t>KITSCH S</t>
+  </si>
+  <si>
+    <t>76.00%</t>
+  </si>
+  <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>TERRY A</t>
   </si>
   <si>
     <t>44.44%</t>
   </si>
   <si>
-    <t>50.00%</t>
-  </si>
-  <si>
     <t>5.56%</t>
   </si>
   <si>
@@ -268,315 +289,318 @@
     <t>BOGUE P</t>
   </si>
   <si>
+    <t>31.82%</t>
+  </si>
+  <si>
+    <t>59.09%</t>
+  </si>
+  <si>
+    <t>MUNSON D</t>
+  </si>
+  <si>
+    <t>36.36%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>COMM-210</t>
+  </si>
+  <si>
+    <t>ORMES G</t>
+  </si>
+  <si>
+    <t>52.63%</t>
+  </si>
+  <si>
+    <t>36.84%</t>
+  </si>
+  <si>
+    <t>10.53%</t>
+  </si>
+  <si>
+    <t>COMM-315</t>
+  </si>
+  <si>
+    <t>43.75%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>2.08%</t>
+  </si>
+  <si>
+    <t>COMM-325</t>
+  </si>
+  <si>
+    <t>35.71%</t>
+  </si>
+  <si>
+    <t>64.29%</t>
+  </si>
+  <si>
+    <t>COMM-335</t>
+  </si>
+  <si>
+    <t>34.29%</t>
+  </si>
+  <si>
+    <t>48.57%</t>
+  </si>
+  <si>
+    <t>12.86%</t>
+  </si>
+  <si>
+    <t>2.86%</t>
+  </si>
+  <si>
+    <t>1.43%</t>
+  </si>
+  <si>
+    <t>COMM-437</t>
+  </si>
+  <si>
+    <t>JONES B</t>
+  </si>
+  <si>
+    <t>86.96%</t>
+  </si>
+  <si>
+    <t>8.70%</t>
+  </si>
+  <si>
+    <t>4.35%</t>
+  </si>
+  <si>
+    <t>COMM-440</t>
+  </si>
+  <si>
+    <t>MERCIECA J</t>
+  </si>
+  <si>
+    <t>63.16%</t>
+  </si>
+  <si>
+    <t>31.58%</t>
+  </si>
+  <si>
+    <t>5.26%</t>
+  </si>
+  <si>
+    <t>COMM-443</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>ECMT-463</t>
+  </si>
+  <si>
+    <t>ZHENG Y</t>
+  </si>
+  <si>
+    <t>31.25%</t>
+  </si>
+  <si>
+    <t>40.63%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
+    <t>ECON-202</t>
+  </si>
+  <si>
+    <t>PACKHAM A</t>
+  </si>
+  <si>
+    <t>25.29%</t>
+  </si>
+  <si>
+    <t>34.48%</t>
+  </si>
+  <si>
+    <t>12.64%</t>
+  </si>
+  <si>
+    <t>2.30%</t>
+  </si>
+  <si>
+    <t>ECON-203</t>
+  </si>
+  <si>
+    <t>AHMAD G</t>
+  </si>
+  <si>
+    <t>20.41%</t>
+  </si>
+  <si>
+    <t>48.98%</t>
+  </si>
+  <si>
+    <t>26.53%</t>
+  </si>
+  <si>
+    <t>2.04%</t>
+  </si>
+  <si>
+    <t>ECON-323</t>
+  </si>
+  <si>
+    <t>PAKHOTINA N</t>
+  </si>
+  <si>
+    <t>12.96%</t>
+  </si>
+  <si>
+    <t>27.78%</t>
+  </si>
+  <si>
+    <t>35.19%</t>
+  </si>
+  <si>
+    <t>14.81%</t>
+  </si>
+  <si>
+    <t>9.26%</t>
+  </si>
+  <si>
+    <t>ECON-330</t>
+  </si>
+  <si>
+    <t>BAYANPOURTEHRANI G</t>
+  </si>
+  <si>
+    <t>39.34%</t>
+  </si>
+  <si>
+    <t>44.26%</t>
+  </si>
+  <si>
+    <t>14.75%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
+    <t>ECON-440</t>
+  </si>
+  <si>
+    <t>WANG Z</t>
+  </si>
+  <si>
+    <t>13.33%</t>
+  </si>
+  <si>
+    <t>63.33%</t>
+  </si>
+  <si>
+    <t>3.33%</t>
+  </si>
+  <si>
+    <t>ECON-465</t>
+  </si>
+  <si>
+    <t>VARGHESE A</t>
+  </si>
+  <si>
+    <t>ECON-685</t>
+  </si>
+  <si>
+    <t>ECKEL D</t>
+  </si>
+  <si>
+    <t>88.89%</t>
+  </si>
+  <si>
+    <t>7.41%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>ECON-689</t>
+  </si>
+  <si>
+    <t>GLASS A</t>
+  </si>
+  <si>
+    <t>76.47%</t>
+  </si>
+  <si>
+    <t>17.65%</t>
+  </si>
+  <si>
+    <t>BROWN A</t>
+  </si>
+  <si>
+    <t>53.85%</t>
+  </si>
+  <si>
+    <t>43.59%</t>
+  </si>
+  <si>
+    <t>2.56%</t>
+  </si>
+  <si>
+    <t>ENGL-235</t>
+  </si>
+  <si>
+    <t>TAYLOR C</t>
+  </si>
+  <si>
+    <t>63.64%</t>
+  </si>
+  <si>
+    <t>22.73%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
+    <t>ENGL-301</t>
+  </si>
+  <si>
+    <t>BRENNER C</t>
+  </si>
+  <si>
+    <t>76.92%</t>
+  </si>
+  <si>
+    <t>19.23%</t>
+  </si>
+  <si>
+    <t>3.85%</t>
+  </si>
+  <si>
+    <t>MORRIS L</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
+    <t>FOSTER A</t>
+  </si>
+  <si>
+    <t>46.43%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>EDENFIELD C</t>
+  </si>
+  <si>
     <t>36.00%</t>
   </si>
   <si>
     <t>56.00%</t>
   </si>
   <si>
-    <t>4.00%</t>
-  </si>
-  <si>
-    <t>LOCKHART L</t>
-  </si>
-  <si>
-    <t>41.67%</t>
-  </si>
-  <si>
-    <t>MUNSON D</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>59.09%</t>
-  </si>
-  <si>
-    <t>4.55%</t>
-  </si>
-  <si>
-    <t>COMM-210</t>
-  </si>
-  <si>
-    <t>ORMES G</t>
-  </si>
-  <si>
-    <t>52.63%</t>
-  </si>
-  <si>
-    <t>36.84%</t>
-  </si>
-  <si>
-    <t>10.53%</t>
-  </si>
-  <si>
-    <t>COMM-325</t>
-  </si>
-  <si>
-    <t>35.71%</t>
-  </si>
-  <si>
-    <t>64.29%</t>
-  </si>
-  <si>
-    <t>COMM-335</t>
-  </si>
-  <si>
-    <t>34.29%</t>
-  </si>
-  <si>
-    <t>48.57%</t>
-  </si>
-  <si>
-    <t>12.86%</t>
-  </si>
-  <si>
-    <t>2.86%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>COMM-437</t>
-  </si>
-  <si>
-    <t>JONES B</t>
-  </si>
-  <si>
-    <t>86.96%</t>
-  </si>
-  <si>
-    <t>8.70%</t>
-  </si>
-  <si>
-    <t>4.35%</t>
-  </si>
-  <si>
-    <t>COMM-440</t>
-  </si>
-  <si>
-    <t>MERCIECA J</t>
-  </si>
-  <si>
-    <t>63.16%</t>
-  </si>
-  <si>
-    <t>31.58%</t>
-  </si>
-  <si>
-    <t>5.26%</t>
-  </si>
-  <si>
-    <t>COMM-443</t>
-  </si>
-  <si>
-    <t>30.00%</t>
-  </si>
-  <si>
-    <t>10.00%</t>
-  </si>
-  <si>
-    <t>ECMT-463</t>
-  </si>
-  <si>
-    <t>ZHENG Y</t>
-  </si>
-  <si>
-    <t>31.25%</t>
-  </si>
-  <si>
-    <t>40.63%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
-  </si>
-  <si>
-    <t>ECON-202</t>
-  </si>
-  <si>
-    <t>PACKHAM A</t>
-  </si>
-  <si>
-    <t>25.29%</t>
-  </si>
-  <si>
-    <t>34.48%</t>
-  </si>
-  <si>
-    <t>12.64%</t>
-  </si>
-  <si>
-    <t>2.30%</t>
-  </si>
-  <si>
-    <t>ECON-203</t>
-  </si>
-  <si>
-    <t>AHMAD G</t>
-  </si>
-  <si>
-    <t>20.41%</t>
-  </si>
-  <si>
-    <t>48.98%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>2.04%</t>
-  </si>
-  <si>
-    <t>ECON-323</t>
-  </si>
-  <si>
-    <t>PAKHOTINA N</t>
-  </si>
-  <si>
-    <t>12.96%</t>
-  </si>
-  <si>
-    <t>27.78%</t>
-  </si>
-  <si>
-    <t>35.19%</t>
-  </si>
-  <si>
-    <t>14.81%</t>
-  </si>
-  <si>
-    <t>9.26%</t>
-  </si>
-  <si>
-    <t>ECON-330</t>
-  </si>
-  <si>
-    <t>BAYANPOURTEHRANI G</t>
-  </si>
-  <si>
-    <t>39.34%</t>
-  </si>
-  <si>
-    <t>44.26%</t>
-  </si>
-  <si>
-    <t>14.75%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>ECON-440</t>
-  </si>
-  <si>
-    <t>WANG Z</t>
-  </si>
-  <si>
-    <t>13.33%</t>
-  </si>
-  <si>
-    <t>63.33%</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>ECON-465</t>
-  </si>
-  <si>
-    <t>VARGHESE A</t>
-  </si>
-  <si>
-    <t>ECON-685</t>
-  </si>
-  <si>
-    <t>ECKEL D</t>
-  </si>
-  <si>
-    <t>88.89%</t>
-  </si>
-  <si>
-    <t>7.41%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>ECON-689</t>
-  </si>
-  <si>
-    <t>GLASS A</t>
-  </si>
-  <si>
-    <t>76.47%</t>
-  </si>
-  <si>
-    <t>17.65%</t>
-  </si>
-  <si>
-    <t>BROWN A</t>
-  </si>
-  <si>
-    <t>53.85%</t>
-  </si>
-  <si>
-    <t>43.59%</t>
-  </si>
-  <si>
-    <t>2.56%</t>
-  </si>
-  <si>
-    <t>ENGL-235</t>
-  </si>
-  <si>
-    <t>TAYLOR C</t>
-  </si>
-  <si>
-    <t>63.64%</t>
-  </si>
-  <si>
-    <t>22.73%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
-  </si>
-  <si>
-    <t>ENGL-301</t>
-  </si>
-  <si>
-    <t>BRENNER C</t>
-  </si>
-  <si>
-    <t>76.92%</t>
-  </si>
-  <si>
-    <t>19.23%</t>
-  </si>
-  <si>
-    <t>3.85%</t>
-  </si>
-  <si>
-    <t>MORRIS L</t>
-  </si>
-  <si>
-    <t>8.33%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>FOSTER A</t>
-  </si>
-  <si>
-    <t>46.43%</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>EDENFIELD C</t>
-  </si>
-  <si>
     <t>8.00%</t>
   </si>
   <si>
@@ -643,6 +667,15 @@
     <t>7.14%</t>
   </si>
   <si>
+    <t>BUSTAMANTE C</t>
+  </si>
+  <si>
+    <t>10.34%</t>
+  </si>
+  <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>HAWKINS C</t>
   </si>
   <si>
@@ -664,6 +697,15 @@
     <t>93.10%</t>
   </si>
   <si>
+    <t>DUNAI A</t>
+  </si>
+  <si>
+    <t>48.28%</t>
+  </si>
+  <si>
+    <t>37.93%</t>
+  </si>
+  <si>
     <t>KNIGHT E</t>
   </si>
   <si>
@@ -700,6 +742,15 @@
     <t>3.23%</t>
   </si>
   <si>
+    <t>ENGL-338</t>
+  </si>
+  <si>
+    <t>PORTALES M</t>
+  </si>
+  <si>
+    <t>68.75%</t>
+  </si>
+  <si>
     <t>ENGL-352</t>
   </si>
   <si>
@@ -799,9 +850,6 @@
     <t>23.61%</t>
   </si>
   <si>
-    <t>2.08%</t>
-  </si>
-  <si>
     <t>1.39%</t>
   </si>
   <si>
@@ -892,6 +940,12 @@
     <t>PHIL-111</t>
   </si>
   <si>
+    <t>DEZORT S</t>
+  </si>
+  <si>
+    <t>92.86%</t>
+  </si>
+  <si>
     <t>MILAM A</t>
   </si>
   <si>
@@ -901,12 +955,6 @@
     <t>20.83%</t>
   </si>
   <si>
-    <t>DEZORT S</t>
-  </si>
-  <si>
-    <t>92.86%</t>
-  </si>
-  <si>
     <t>PHIL-240</t>
   </si>
   <si>
@@ -967,6 +1015,12 @@
     <t>4.76%</t>
   </si>
   <si>
+    <t>PHIL-485</t>
+  </si>
+  <si>
+    <t>WRIGHT D</t>
+  </si>
+  <si>
     <t>POLS-206</t>
   </si>
   <si>
@@ -1153,6 +1207,12 @@
     <t>SAMUELSON C</t>
   </si>
   <si>
+    <t>28.13%</t>
+  </si>
+  <si>
+    <t>46.88%</t>
+  </si>
+  <si>
     <t>PSYC-304</t>
   </si>
   <si>
@@ -1312,6 +1372,24 @@
     <t>21.43%</t>
   </si>
   <si>
+    <t>SOCI-314</t>
+  </si>
+  <si>
+    <t>FIELD L</t>
+  </si>
+  <si>
+    <t>72.22%</t>
+  </si>
+  <si>
+    <t>SOCI-317</t>
+  </si>
+  <si>
+    <t>REGAN M</t>
+  </si>
+  <si>
+    <t>39.39%</t>
+  </si>
+  <si>
     <t>SOCI-420</t>
   </si>
   <si>
@@ -1360,9 +1438,39 @@
     <t>11.11%</t>
   </si>
   <si>
+    <t>SPAN-102</t>
+  </si>
+  <si>
+    <t>ROCHA D</t>
+  </si>
+  <si>
+    <t>SPAN-201</t>
+  </si>
+  <si>
+    <t>MONTEJO P</t>
+  </si>
+  <si>
+    <t>81.82%</t>
+  </si>
+  <si>
+    <t>LUISELLI A</t>
+  </si>
+  <si>
+    <t>32.00%</t>
+  </si>
+  <si>
+    <t>52.00%</t>
+  </si>
+  <si>
+    <t>ZAVALA A</t>
+  </si>
+  <si>
     <t>SPAN-202</t>
   </si>
   <si>
+    <t>RODRIGUEZ G</t>
+  </si>
+  <si>
     <t>PALACIOS P</t>
   </si>
   <si>
@@ -1430,6 +1538,12 @@
   </si>
   <si>
     <t>8.82%</t>
+  </si>
+  <si>
+    <t>THAR-328</t>
+  </si>
+  <si>
+    <t>90.00%</t>
   </si>
   <si>
     <t>WGST-200</t>
@@ -1772,7 +1886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2060,157 +2174,75 @@
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>41</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.958</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>3.088</v>
+        <v>3.833</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3.1665</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>14</v>
+      <c r="A33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C34" t="n">
-        <v>3.167</v>
+        <v>2.96</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -2221,42 +2253,42 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C35" t="n">
-        <v>3.208</v>
+        <v>3.38</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C36" t="n">
-        <v>3.286</v>
+        <v>2.958</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -2267,45 +2299,45 @@
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C37" t="n">
-        <v>3.278</v>
+        <v>3.088</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C38" t="n">
-        <v>3.143</v>
+        <v>3.292</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -2313,22 +2345,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C39" t="n">
-        <v>3.24</v>
+        <v>3.1665</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -2336,22 +2368,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C40" t="n">
-        <v>3.292</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -2359,50 +2391,91 @@
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C41" t="n">
-        <v>3.273</v>
+        <v>3.167</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="42" spans="1:8">
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>93</v>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C44" t="n">
-        <v>3.333</v>
+        <v>3.16</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -2410,50 +2483,91 @@
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C45" t="n">
-        <v>3.316</v>
+        <v>3.278</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>98</v>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C48" t="n">
-        <v>3.357</v>
+        <v>3.273</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -2461,436 +2575,436 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
         <v>61</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C58" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="n">
         <v>3.114</v>
       </c>
-      <c r="D51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" t="n">
+      <c r="D61" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" t="s">
+        <v>111</v>
+      </c>
+      <c r="G61" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" t="n">
         <v>3.826</v>
       </c>
-      <c r="D54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="n">
         <v>3.579</v>
       </c>
-      <c r="D57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" t="s">
-        <v>115</v>
-      </c>
-      <c r="F57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="n">
+      <c r="D67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
         <v>3.2</v>
       </c>
-      <c r="D60" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" t="s">
-        <v>119</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" t="n">
+      <c r="D70" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="n">
         <v>2.781</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D73" t="s">
         <v>39</v>
       </c>
-      <c r="E63" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" t="s">
-        <v>124</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" t="n">
+      <c r="E73" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" t="s">
+        <v>130</v>
+      </c>
+      <c r="G73" t="s">
+        <v>131</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" t="n">
         <v>2.678</v>
       </c>
-      <c r="D66" t="s">
-        <v>127</v>
-      </c>
-      <c r="E66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F66" t="s">
-        <v>127</v>
-      </c>
-      <c r="G66" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="B69" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" t="n">
+      <c r="D76" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76" t="s">
+        <v>136</v>
+      </c>
+      <c r="H76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" t="n">
         <v>2.837</v>
       </c>
-      <c r="D69" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" t="s">
-        <v>134</v>
-      </c>
-      <c r="F69" t="s">
-        <v>135</v>
-      </c>
-      <c r="G69" t="s">
-        <v>136</v>
-      </c>
-      <c r="H69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="B72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="D79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" t="s">
+        <v>142</v>
+      </c>
+      <c r="G79" t="s">
+        <v>143</v>
+      </c>
+      <c r="H79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="n">
         <v>2.204</v>
       </c>
-      <c r="D72" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" t="s">
-        <v>140</v>
-      </c>
-      <c r="F72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
-        <v>145</v>
-      </c>
-      <c r="C75" t="n">
+      <c r="D82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" t="s">
+        <v>147</v>
+      </c>
+      <c r="F82" t="s">
+        <v>148</v>
+      </c>
+      <c r="G82" t="s">
+        <v>149</v>
+      </c>
+      <c r="H82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" t="n">
         <v>3.197</v>
       </c>
-      <c r="D75" t="s">
-        <v>146</v>
-      </c>
-      <c r="E75" t="s">
-        <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
-      </c>
-      <c r="G75" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="B78" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D78" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D85" t="s">
         <v>153</v>
       </c>
-      <c r="F78" t="s">
-        <v>33</v>
-      </c>
-      <c r="G78" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="E85" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
+      <c r="F85" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="B81" t="s">
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
         <v>156</v>
       </c>
-      <c r="C81" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="D81" t="s">
-        <v>96</v>
-      </c>
-      <c r="E81" t="s">
-        <v>95</v>
-      </c>
-      <c r="F81" t="s">
-        <v>116</v>
-      </c>
-      <c r="G81" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="B84" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.742</v>
-      </c>
-      <c r="D84" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" t="s">
-        <v>160</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="B87" t="s">
-        <v>163</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3.706</v>
-      </c>
-      <c r="D87" t="s">
-        <v>164</v>
-      </c>
-      <c r="E87" t="s">
-        <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>36</v>
-      </c>
-      <c r="G87" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C88" t="n">
-        <v>3.513</v>
+        <v>2.833</v>
       </c>
       <c r="D88" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E88" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C91" t="n">
-        <v>3.273</v>
+        <v>3.158</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="B94" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C94" t="n">
-        <v>3.654</v>
+        <v>3.742</v>
       </c>
       <c r="D94" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E94" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -2899,70 +3013,29 @@
         <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.458</v>
-      </c>
-      <c r="D95" t="s">
-        <v>181</v>
-      </c>
-      <c r="E95" t="s">
-        <v>50</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
-      </c>
-      <c r="G95" t="s">
-        <v>181</v>
-      </c>
-      <c r="H95" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3.393</v>
-      </c>
-      <c r="D96" t="s">
-        <v>184</v>
-      </c>
-      <c r="E96" t="s">
-        <v>76</v>
-      </c>
-      <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>185</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
+      <c r="A96" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="B97" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C97" t="n">
-        <v>3.28</v>
+        <v>3.706</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E97" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="F97" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>14</v>
@@ -2973,206 +3046,124 @@
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C98" t="n">
-        <v>2.792</v>
+        <v>3.513</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="G98" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" t="s">
-        <v>190</v>
-      </c>
-      <c r="C99" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="D99" t="s">
-        <v>191</v>
-      </c>
-      <c r="E99" t="s">
-        <v>192</v>
-      </c>
-      <c r="F99" t="s">
-        <v>193</v>
-      </c>
-      <c r="G99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D100" t="s">
-        <v>195</v>
-      </c>
-      <c r="E100" t="s">
-        <v>196</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" t="s">
-        <v>14</v>
+      <c r="A100" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C101" t="n">
-        <v>3.893</v>
+        <v>3.273</v>
       </c>
       <c r="D101" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="D102" t="s">
-        <v>201</v>
-      </c>
-      <c r="E102" t="s">
-        <v>202</v>
-      </c>
-      <c r="F102" t="s">
-        <v>203</v>
-      </c>
-      <c r="G102" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="D103" t="s">
-        <v>205</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="A103" t="s">
         <v>182</v>
-      </c>
-      <c r="F103" t="s">
-        <v>70</v>
-      </c>
-      <c r="G103" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C104" t="n">
-        <v>2.964</v>
+        <v>3.654</v>
       </c>
       <c r="D104" t="s">
         <v>184</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="B105" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C105" t="n">
-        <v>2.9</v>
+        <v>2.458</v>
       </c>
       <c r="D105" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E105" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F105" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="H105" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C106" t="n">
-        <v>3.862</v>
+        <v>3.393</v>
       </c>
       <c r="D106" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
@@ -3180,258 +3171,422 @@
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C107" t="n">
-        <v>3.724</v>
+        <v>3.28</v>
       </c>
       <c r="D107" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="B108" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C108" t="n">
-        <v>3.37</v>
+        <v>2.792</v>
       </c>
       <c r="D108" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H108" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C109" t="n">
-        <v>3.333</v>
+        <v>3.552</v>
       </c>
       <c r="D109" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="E109" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>154</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D110" t="s">
+        <v>203</v>
+      </c>
+      <c r="E110" t="s">
+        <v>204</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>220</v>
+      <c r="B111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="D111" t="s">
+        <v>206</v>
+      </c>
+      <c r="E111" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C112" t="n">
-        <v>2.933</v>
+        <v>3.552</v>
       </c>
       <c r="D112" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="E112" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G112" t="s">
         <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>154</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="B113" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="D113" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" t="s">
+        <v>103</v>
+      </c>
+      <c r="F113" t="s">
+        <v>64</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>222</v>
+      <c r="B114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="D114" t="s">
+        <v>190</v>
+      </c>
+      <c r="E114" t="s">
+        <v>215</v>
+      </c>
+      <c r="F114" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" t="s">
+        <v>216</v>
+      </c>
+      <c r="H114" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="B115" t="s">
+        <v>217</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.345</v>
+      </c>
+      <c r="D115" t="s">
+        <v>209</v>
+      </c>
+      <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
+        <v>218</v>
+      </c>
+      <c r="G115" t="s">
+        <v>201</v>
+      </c>
+      <c r="H115" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" t="s">
+        <v>43</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="B117" t="s">
         <v>223</v>
       </c>
-      <c r="C115" t="n">
-        <v>3.226</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C117" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="D117" t="s">
         <v>224</v>
       </c>
-      <c r="E115" t="s">
-        <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
-      </c>
-      <c r="G115" t="s">
-        <v>227</v>
-      </c>
-      <c r="H115" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>228</v>
+      <c r="E117" t="s">
+        <v>211</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="D118" t="s">
+        <v>226</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.207</v>
+      </c>
+      <c r="D119" t="s">
+        <v>228</v>
+      </c>
+      <c r="E119" t="s">
         <v>229</v>
       </c>
-      <c r="C118" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D118" t="s">
-        <v>118</v>
-      </c>
-      <c r="E118" t="s">
-        <v>153</v>
-      </c>
-      <c r="F118" t="s">
-        <v>154</v>
-      </c>
-      <c r="G118" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" t="s">
-        <v>154</v>
+      <c r="F119" t="s">
+        <v>201</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
         <v>230</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="D120" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" t="s">
+        <v>103</v>
+      </c>
+      <c r="F120" t="s">
+        <v>167</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="B121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C121" t="n">
-        <v>2.88</v>
+        <v>3.333</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E121" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="G121" t="s">
         <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="B124" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C124" t="n">
-        <v>3.294</v>
+        <v>2.933</v>
       </c>
       <c r="D124" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G124" t="s">
         <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="B127" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="D127" t="s">
         <v>238</v>
       </c>
-      <c r="C127" t="n">
-        <v>3.235</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>239</v>
       </c>
-      <c r="E127" t="s">
-        <v>235</v>
-      </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="H127" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>3.688</v>
       </c>
       <c r="D130" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -3440,225 +3595,225 @@
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="B133" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C133" t="n">
-        <v>2.917</v>
+        <v>3.167</v>
       </c>
       <c r="D133" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="F133" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="G133" t="s">
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="D136" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C139" t="n">
-        <v>3.8</v>
+        <v>3.294</v>
       </c>
       <c r="D139" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="G139" t="s">
         <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C142" t="n">
-        <v>2.5</v>
+        <v>3.235</v>
       </c>
       <c r="D142" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="E142" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="B145" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C145" t="n">
-        <v>3.276</v>
+        <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="E145" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="G145" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="B148" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C148" t="n">
-        <v>2.931</v>
+        <v>2.917</v>
       </c>
       <c r="D148" t="s">
+        <v>103</v>
+      </c>
+      <c r="E148" t="s">
         <v>39</v>
       </c>
-      <c r="E148" t="s">
-        <v>259</v>
-      </c>
       <c r="F148" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="G148" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>262</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C151" t="n">
-        <v>2.889</v>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E151" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="G151" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="B154" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C154" t="n">
-        <v>3.194</v>
+        <v>3.8</v>
       </c>
       <c r="D154" t="s">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="E154" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G154" t="s">
         <v>14</v>
@@ -3669,136 +3824,136 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="B157" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C157" t="n">
-        <v>2.805</v>
+        <v>2.5</v>
       </c>
       <c r="D157" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="E157" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F157" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>276</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="B160" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C160" t="n">
-        <v>2.967</v>
+        <v>3.276</v>
       </c>
       <c r="D160" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="E160" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="H160" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="B163" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C163" t="n">
-        <v>3.454</v>
+        <v>2.931</v>
       </c>
       <c r="D163" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="F163" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
+        <v>275</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="D166" t="s">
+        <v>39</v>
+      </c>
+      <c r="E166" t="s">
+        <v>280</v>
+      </c>
+      <c r="F166" t="s">
         <v>281</v>
       </c>
-      <c r="C166" t="n">
-        <v>4</v>
-      </c>
-      <c r="D166" t="s">
-        <v>22</v>
-      </c>
-      <c r="E166" t="s">
-        <v>14</v>
-      </c>
-      <c r="F166" t="s">
-        <v>14</v>
-      </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="B169" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C169" t="n">
-        <v>3.75</v>
+        <v>3.194</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="E169" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="F169" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
         <v>14</v>
@@ -3809,80 +3964,80 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="B172" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>2.805</v>
       </c>
       <c r="D172" t="s">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="G172" t="s">
         <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="B175" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C175" t="n">
-        <v>3.55</v>
+        <v>2.967</v>
       </c>
       <c r="D175" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F175" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
         <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="B178" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>3.454</v>
       </c>
       <c r="D178" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
@@ -3893,12 +4048,12 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="B181" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C181" t="n">
         <v>4</v>
@@ -3921,24 +4076,24 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="B184" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C184" t="n">
-        <v>3.792</v>
+        <v>3.75</v>
       </c>
       <c r="D184" t="s">
-        <v>293</v>
+        <v>25</v>
       </c>
       <c r="E184" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G184" t="s">
         <v>14</v>
@@ -3947,126 +4102,85 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
-      <c r="B185" t="s">
-        <v>295</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="D185" t="s">
-        <v>296</v>
-      </c>
-      <c r="E185" t="s">
-        <v>185</v>
-      </c>
-      <c r="F185" t="s">
-        <v>185</v>
-      </c>
-      <c r="G185" t="s">
-        <v>14</v>
-      </c>
-      <c r="H185" t="s">
-        <v>14</v>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="B188" t="s">
-        <v>298</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="D188" t="s">
-        <v>299</v>
-      </c>
-      <c r="E188" t="s">
-        <v>115</v>
-      </c>
-      <c r="F188" t="s">
+      <c r="B187" t="s">
         <v>300</v>
       </c>
-      <c r="G188" t="s">
-        <v>14</v>
-      </c>
-      <c r="H188" t="s">
+      <c r="C187" t="n">
+        <v>4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>14</v>
+      </c>
+      <c r="H187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="B189" t="s">
-        <v>302</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.326</v>
-      </c>
-      <c r="D189" t="s">
-        <v>303</v>
-      </c>
-      <c r="E189" t="s">
-        <v>304</v>
-      </c>
-      <c r="F189" t="s">
-        <v>305</v>
-      </c>
-      <c r="G189" t="s">
-        <v>304</v>
-      </c>
-      <c r="H189" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="B190" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C190" t="n">
-        <v>2.675</v>
+        <v>3.55</v>
       </c>
       <c r="D190" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E190" t="s">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="F190" t="s">
-        <v>310</v>
+        <v>126</v>
       </c>
       <c r="G190" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="B193" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C193" t="n">
-        <v>3.714</v>
+        <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="E193" t="s">
-        <v>315</v>
+        <v>14</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
       </c>
       <c r="G193" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
         <v>14</v>
@@ -4074,109 +4188,109 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="B196" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C196" t="n">
-        <v>2.913</v>
+        <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="E196" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>321</v>
+        <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
-      <c r="B197" t="s">
-        <v>323</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.411</v>
-      </c>
-      <c r="D197" t="s">
-        <v>324</v>
-      </c>
-      <c r="E197" t="s">
-        <v>325</v>
-      </c>
-      <c r="F197" t="s">
-        <v>211</v>
-      </c>
-      <c r="G197" t="s">
-        <v>154</v>
-      </c>
-      <c r="H197" t="s">
-        <v>326</v>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>327</v>
+      <c r="B199" t="s">
+        <v>308</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="D199" t="s">
+        <v>309</v>
+      </c>
+      <c r="E199" t="s">
+        <v>191</v>
+      </c>
+      <c r="F199" t="s">
+        <v>191</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="B200" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C200" t="n">
-        <v>2.005</v>
+        <v>3.792</v>
       </c>
       <c r="D200" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E200" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F200" t="s">
-        <v>331</v>
+        <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="B201" t="s">
-        <v>334</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.781</v>
-      </c>
-      <c r="D201" t="s">
-        <v>335</v>
-      </c>
-      <c r="E201" t="s">
-        <v>336</v>
-      </c>
-      <c r="F201" t="s">
-        <v>337</v>
-      </c>
-      <c r="G201" t="s">
-        <v>338</v>
-      </c>
-      <c r="H201" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>339</v>
+      <c r="B203" t="s">
+        <v>314</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D203" t="s">
+        <v>315</v>
+      </c>
+      <c r="E203" t="s">
+        <v>122</v>
+      </c>
+      <c r="F203" t="s">
+        <v>316</v>
+      </c>
+      <c r="G203" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -4184,162 +4298,203 @@
         <v>318</v>
       </c>
       <c r="C204" t="n">
-        <v>3.571</v>
+        <v>2.326</v>
       </c>
       <c r="D204" t="s">
+        <v>319</v>
+      </c>
+      <c r="E204" t="s">
+        <v>320</v>
+      </c>
+      <c r="F204" t="s">
+        <v>321</v>
+      </c>
+      <c r="G204" t="s">
+        <v>320</v>
+      </c>
+      <c r="H204" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="B205" t="s">
+        <v>323</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="D205" t="s">
+        <v>324</v>
+      </c>
+      <c r="E205" t="s">
+        <v>325</v>
+      </c>
+      <c r="F205" t="s">
+        <v>326</v>
+      </c>
+      <c r="G205" t="s">
+        <v>327</v>
+      </c>
+      <c r="H205" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
+        <v>329</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D208" t="s">
+        <v>330</v>
+      </c>
+      <c r="E208" t="s">
+        <v>331</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>332</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="B211" t="s">
+        <v>334</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>71</v>
+      </c>
+      <c r="E211" t="s">
+        <v>70</v>
+      </c>
+      <c r="F211" t="s">
+        <v>14</v>
+      </c>
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="B214" t="s">
+        <v>336</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="D214" t="s">
+        <v>337</v>
+      </c>
+      <c r="E214" t="s">
+        <v>338</v>
+      </c>
+      <c r="F214" t="s">
+        <v>339</v>
+      </c>
+      <c r="G214" t="s">
         <v>340</v>
       </c>
-      <c r="E204" t="s">
+      <c r="H214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="B215" t="s">
         <v>341</v>
       </c>
-      <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>14</v>
-      </c>
-      <c r="H204" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
+      <c r="C215" t="n">
+        <v>3.411</v>
+      </c>
+      <c r="D215" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="B207" t="s">
-        <v>284</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4</v>
-      </c>
-      <c r="D207" t="s">
-        <v>22</v>
-      </c>
-      <c r="E207" t="s">
-        <v>14</v>
-      </c>
-      <c r="F207" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" t="s">
-        <v>14</v>
-      </c>
-      <c r="H207" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
+      <c r="E215" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="B210" t="s">
+      <c r="F215" t="s">
+        <v>222</v>
+      </c>
+      <c r="G215" t="s">
+        <v>161</v>
+      </c>
+      <c r="H215" t="s">
         <v>344</v>
       </c>
-      <c r="C210" t="n">
-        <v>3.593</v>
-      </c>
-      <c r="D210" t="s">
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
         <v>345</v>
       </c>
-      <c r="E210" t="s">
-        <v>182</v>
-      </c>
-      <c r="F210" t="s">
-        <v>161</v>
-      </c>
-      <c r="G210" t="s">
-        <v>14</v>
-      </c>
-      <c r="H210" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
+    </row>
+    <row r="218" spans="1:8">
+      <c r="B218" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="B213" t="s">
+      <c r="C218" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="D218" t="s">
         <v>347</v>
       </c>
-      <c r="C213" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="E218" t="s">
         <v>348</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F218" t="s">
         <v>349</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G218" t="s">
         <v>350</v>
       </c>
-      <c r="G213" t="s">
-        <v>236</v>
-      </c>
-      <c r="H213" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
+      <c r="H218" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="B216" t="s">
-        <v>352</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3.657</v>
-      </c>
-      <c r="D216" t="s">
-        <v>353</v>
-      </c>
-      <c r="E216" t="s">
-        <v>354</v>
-      </c>
-      <c r="F216" t="s">
-        <v>105</v>
-      </c>
-      <c r="G216" t="s">
-        <v>14</v>
-      </c>
-      <c r="H216" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="B219" t="s">
+        <v>352</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.781</v>
+      </c>
+      <c r="D219" t="s">
+        <v>353</v>
+      </c>
+      <c r="E219" t="s">
+        <v>354</v>
+      </c>
+      <c r="F219" t="s">
+        <v>355</v>
+      </c>
+      <c r="G219" t="s">
         <v>356</v>
       </c>
-      <c r="C219" t="n">
-        <v>4</v>
-      </c>
-      <c r="D219" t="s">
-        <v>22</v>
-      </c>
-      <c r="E219" t="s">
-        <v>14</v>
-      </c>
-      <c r="F219" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" t="s">
-        <v>14</v>
-      </c>
       <c r="H219" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -4349,16 +4504,16 @@
     </row>
     <row r="222" spans="1:8">
       <c r="B222" t="s">
+        <v>336</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D222" t="s">
         <v>358</v>
       </c>
-      <c r="C222" t="n">
-        <v>4</v>
-      </c>
-      <c r="D222" t="s">
-        <v>22</v>
-      </c>
       <c r="E222" t="s">
-        <v>14</v>
+        <v>359</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -4372,21 +4527,21 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="B225" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C225" t="n">
-        <v>3.833</v>
+        <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E225" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F225" t="s">
         <v>14</v>
@@ -4408,342 +4563,342 @@
         <v>362</v>
       </c>
       <c r="C228" t="n">
-        <v>2.779</v>
+        <v>3.593</v>
       </c>
       <c r="D228" t="s">
         <v>363</v>
       </c>
       <c r="E228" t="s">
+        <v>103</v>
+      </c>
+      <c r="F228" t="s">
+        <v>168</v>
+      </c>
+      <c r="G228" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
         <v>364</v>
       </c>
-      <c r="F228" t="s">
+    </row>
+    <row r="231" spans="1:8">
+      <c r="B231" t="s">
         <v>365</v>
       </c>
-      <c r="G228" t="s">
+      <c r="C231" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="D231" t="s">
         <v>366</v>
       </c>
-      <c r="H228" t="s">
+      <c r="E231" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="B229" t="s">
+      <c r="F231" t="s">
         <v>368</v>
       </c>
-      <c r="C229" t="n">
+      <c r="G231" t="s">
+        <v>253</v>
+      </c>
+      <c r="H231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="B234" t="s">
+        <v>370</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.657</v>
+      </c>
+      <c r="D234" t="s">
+        <v>371</v>
+      </c>
+      <c r="E234" t="s">
+        <v>372</v>
+      </c>
+      <c r="F234" t="s">
+        <v>112</v>
+      </c>
+      <c r="G234" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="B237" t="s">
+        <v>374</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4</v>
+      </c>
+      <c r="D237" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" t="s">
+        <v>14</v>
+      </c>
+      <c r="G237" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="B240" t="s">
+        <v>376</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>22</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" t="s">
+        <v>14</v>
+      </c>
+      <c r="H240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="B243" t="s">
+        <v>378</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D243" t="s">
+        <v>42</v>
+      </c>
+      <c r="E243" t="s">
+        <v>43</v>
+      </c>
+      <c r="F243" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" t="s">
+        <v>14</v>
+      </c>
+      <c r="H243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="B246" t="s">
+        <v>380</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2.779</v>
+      </c>
+      <c r="D246" t="s">
+        <v>381</v>
+      </c>
+      <c r="E246" t="s">
+        <v>382</v>
+      </c>
+      <c r="F246" t="s">
+        <v>383</v>
+      </c>
+      <c r="G246" t="s">
+        <v>384</v>
+      </c>
+      <c r="H246" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>386</v>
+      </c>
+      <c r="C247" t="n">
         <v>3.019</v>
       </c>
-      <c r="D229" t="s">
-        <v>369</v>
-      </c>
-      <c r="E229" t="s">
-        <v>370</v>
-      </c>
-      <c r="F229" t="s">
-        <v>178</v>
-      </c>
-      <c r="G229" t="s">
-        <v>196</v>
-      </c>
-      <c r="H229" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="B232" t="s">
-        <v>373</v>
-      </c>
-      <c r="C232" t="n">
+      <c r="D247" t="s">
+        <v>387</v>
+      </c>
+      <c r="E247" t="s">
+        <v>388</v>
+      </c>
+      <c r="F247" t="s">
+        <v>185</v>
+      </c>
+      <c r="G247" t="s">
+        <v>204</v>
+      </c>
+      <c r="H247" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
+        <v>391</v>
+      </c>
+      <c r="C250" t="n">
         <v>3.428</v>
       </c>
-      <c r="D232" t="s">
-        <v>374</v>
-      </c>
-      <c r="E232" t="s">
-        <v>90</v>
-      </c>
-      <c r="F232" t="s">
-        <v>375</v>
-      </c>
-      <c r="G232" t="s">
-        <v>376</v>
-      </c>
-      <c r="H232" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="B235" t="s">
-        <v>378</v>
-      </c>
-      <c r="C235" t="n">
-        <v>2.353</v>
-      </c>
-      <c r="D235" t="s">
-        <v>350</v>
-      </c>
-      <c r="E235" t="s">
-        <v>165</v>
-      </c>
-      <c r="F235" t="s">
-        <v>349</v>
-      </c>
-      <c r="G235" t="s">
-        <v>36</v>
-      </c>
-      <c r="H235" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="B238" t="s">
-        <v>380</v>
-      </c>
-      <c r="C238" t="n">
+      <c r="D250" t="s">
+        <v>392</v>
+      </c>
+      <c r="E250" t="s">
+        <v>94</v>
+      </c>
+      <c r="F250" t="s">
+        <v>393</v>
+      </c>
+      <c r="G250" t="s">
+        <v>394</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="B253" t="s">
+        <v>396</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="D253" t="s">
+        <v>75</v>
+      </c>
+      <c r="E253" t="s">
+        <v>397</v>
+      </c>
+      <c r="F253" t="s">
+        <v>398</v>
+      </c>
+      <c r="G253" t="s">
+        <v>75</v>
+      </c>
+      <c r="H253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="B256" t="s">
+        <v>400</v>
+      </c>
+      <c r="C256" t="n">
         <v>4</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D256" t="s">
         <v>22</v>
       </c>
-      <c r="E238" t="s">
-        <v>14</v>
-      </c>
-      <c r="F238" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" t="s">
-        <v>14</v>
-      </c>
-      <c r="H238" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="B241" t="s">
-        <v>382</v>
-      </c>
-      <c r="C241" t="n">
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" t="s">
+        <v>14</v>
+      </c>
+      <c r="G256" t="s">
+        <v>14</v>
+      </c>
+      <c r="H256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="B259" t="s">
+        <v>402</v>
+      </c>
+      <c r="C259" t="n">
         <v>3.674</v>
       </c>
-      <c r="D241" t="s">
-        <v>383</v>
-      </c>
-      <c r="E241" t="s">
-        <v>384</v>
-      </c>
-      <c r="F241" t="s">
-        <v>385</v>
-      </c>
-      <c r="G241" t="s">
-        <v>14</v>
-      </c>
-      <c r="H241" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="B242" t="s">
-        <v>386</v>
-      </c>
-      <c r="C242" t="n">
-        <v>3.304</v>
-      </c>
-      <c r="D242" t="s">
-        <v>387</v>
-      </c>
-      <c r="E242" t="s">
-        <v>388</v>
-      </c>
-      <c r="F242" t="s">
-        <v>389</v>
-      </c>
-      <c r="G242" t="s">
-        <v>14</v>
-      </c>
-      <c r="H242" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="B245" t="s">
-        <v>391</v>
-      </c>
-      <c r="C245" t="n">
-        <v>3.676</v>
-      </c>
-      <c r="D245" t="s">
-        <v>392</v>
-      </c>
-      <c r="E245" t="s">
-        <v>393</v>
-      </c>
-      <c r="F245" t="s">
-        <v>376</v>
-      </c>
-      <c r="G245" t="s">
-        <v>14</v>
-      </c>
-      <c r="H245" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="B248" t="s">
-        <v>395</v>
-      </c>
-      <c r="C248" t="n">
-        <v>3.644</v>
-      </c>
-      <c r="D248" t="s">
-        <v>396</v>
-      </c>
-      <c r="E248" t="s">
-        <v>397</v>
-      </c>
-      <c r="F248" t="s">
-        <v>14</v>
-      </c>
-      <c r="G248" t="s">
-        <v>14</v>
-      </c>
-      <c r="H248" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="B251" t="s">
-        <v>399</v>
-      </c>
-      <c r="C251" t="n">
-        <v>3</v>
-      </c>
-      <c r="D251" t="s">
-        <v>84</v>
-      </c>
-      <c r="E251" t="s">
-        <v>84</v>
-      </c>
-      <c r="F251" t="s">
-        <v>400</v>
-      </c>
-      <c r="G251" t="s">
-        <v>86</v>
-      </c>
-      <c r="H251" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="B254" t="s">
+      <c r="D259" t="s">
         <v>403</v>
       </c>
-      <c r="C254" t="n">
-        <v>3.617</v>
-      </c>
-      <c r="D254" t="s">
+      <c r="E259" t="s">
         <v>404</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F259" t="s">
         <v>405</v>
       </c>
-      <c r="F254" t="s">
-        <v>406</v>
-      </c>
-      <c r="G254" t="s">
-        <v>14</v>
-      </c>
-      <c r="H254" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="B257" t="s">
-        <v>380</v>
-      </c>
-      <c r="C257" t="n">
-        <v>4</v>
-      </c>
-      <c r="D257" t="s">
-        <v>22</v>
-      </c>
-      <c r="E257" t="s">
-        <v>14</v>
-      </c>
-      <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>14</v>
-      </c>
-      <c r="H257" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" t="s">
-        <v>408</v>
+      <c r="G259" t="s">
+        <v>14</v>
+      </c>
+      <c r="H259" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="B260" t="s">
+        <v>406</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.304</v>
+      </c>
+      <c r="D260" t="s">
+        <v>407</v>
+      </c>
+      <c r="E260" t="s">
+        <v>408</v>
+      </c>
+      <c r="F260" t="s">
         <v>409</v>
-      </c>
-      <c r="C260" t="n">
-        <v>3.909</v>
-      </c>
-      <c r="D260" t="s">
-        <v>410</v>
-      </c>
-      <c r="E260" t="s">
-        <v>174</v>
-      </c>
-      <c r="F260" t="s">
-        <v>14</v>
       </c>
       <c r="G260" t="s">
         <v>14</v>
@@ -4754,24 +4909,24 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="B263" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C263" t="n">
-        <v>3.857</v>
+        <v>3.676</v>
       </c>
       <c r="D263" t="s">
         <v>412</v>
       </c>
       <c r="E263" t="s">
-        <v>315</v>
+        <v>413</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="G263" t="s">
         <v>14</v>
@@ -4782,21 +4937,21 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="B266" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C266" t="n">
-        <v>3.917</v>
+        <v>3.644</v>
       </c>
       <c r="D266" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E266" t="s">
-        <v>181</v>
+        <v>417</v>
       </c>
       <c r="F266" t="s">
         <v>14</v>
@@ -4810,240 +4965,240 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="B269" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C269" t="n">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="E269" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="F269" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="G269" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H269" t="s">
-        <v>14</v>
+        <v>421</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="B272" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C272" t="n">
+        <v>3.617</v>
+      </c>
+      <c r="D272" t="s">
+        <v>424</v>
+      </c>
+      <c r="E272" t="s">
+        <v>425</v>
+      </c>
+      <c r="F272" t="s">
+        <v>426</v>
+      </c>
+      <c r="G272" t="s">
+        <v>14</v>
+      </c>
+      <c r="H272" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>400</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4</v>
+      </c>
+      <c r="D275" t="s">
+        <v>22</v>
+      </c>
+      <c r="E275" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" t="s">
+        <v>14</v>
+      </c>
+      <c r="G275" t="s">
+        <v>14</v>
+      </c>
+      <c r="H275" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="B278" t="s">
+        <v>429</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.909</v>
+      </c>
+      <c r="D278" t="s">
+        <v>430</v>
+      </c>
+      <c r="E278" t="s">
+        <v>181</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s">
+        <v>14</v>
+      </c>
+      <c r="H278" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="B281" t="s">
+        <v>415</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D281" t="s">
+        <v>432</v>
+      </c>
+      <c r="E281" t="s">
+        <v>331</v>
+      </c>
+      <c r="F281" t="s">
+        <v>14</v>
+      </c>
+      <c r="G281" t="s">
+        <v>14</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="B284" t="s">
+        <v>434</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.917</v>
+      </c>
+      <c r="D284" t="s">
+        <v>435</v>
+      </c>
+      <c r="E284" t="s">
+        <v>188</v>
+      </c>
+      <c r="F284" t="s">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s">
+        <v>14</v>
+      </c>
+      <c r="H284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="B287" t="s">
+        <v>437</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D287" t="s">
+        <v>62</v>
+      </c>
+      <c r="E287" t="s">
+        <v>63</v>
+      </c>
+      <c r="F287" t="s">
+        <v>188</v>
+      </c>
+      <c r="G287" t="s">
+        <v>14</v>
+      </c>
+      <c r="H287" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="B290" t="s">
+        <v>439</v>
+      </c>
+      <c r="C290" t="n">
         <v>2.348</v>
       </c>
-      <c r="D272" t="s">
-        <v>420</v>
-      </c>
-      <c r="E272" t="s">
-        <v>331</v>
-      </c>
-      <c r="F272" t="s">
-        <v>421</v>
-      </c>
-      <c r="G272" t="s">
-        <v>420</v>
-      </c>
-      <c r="H272" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="B273" t="s">
-        <v>422</v>
-      </c>
-      <c r="C273" t="n">
-        <v>4</v>
-      </c>
-      <c r="D273" t="s">
-        <v>22</v>
-      </c>
-      <c r="E273" t="s">
-        <v>14</v>
-      </c>
-      <c r="F273" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" t="s">
-        <v>14</v>
-      </c>
-      <c r="H273" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="B276" t="s">
-        <v>424</v>
-      </c>
-      <c r="C276" t="n">
-        <v>3.533</v>
-      </c>
-      <c r="D276" t="s">
-        <v>219</v>
-      </c>
-      <c r="E276" t="s">
-        <v>425</v>
-      </c>
-      <c r="F276" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" t="s">
-        <v>14</v>
-      </c>
-      <c r="H276" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="B279" t="s">
-        <v>427</v>
-      </c>
-      <c r="C279" t="n">
-        <v>2.944</v>
-      </c>
-      <c r="D279" t="s">
-        <v>428</v>
-      </c>
-      <c r="E279" t="s">
-        <v>76</v>
-      </c>
-      <c r="F279" t="s">
-        <v>140</v>
-      </c>
-      <c r="G279" t="s">
-        <v>14</v>
-      </c>
-      <c r="H279" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="B282" t="s">
-        <v>430</v>
-      </c>
-      <c r="C282" t="n">
-        <v>2.714</v>
-      </c>
-      <c r="D282" t="s">
-        <v>72</v>
-      </c>
-      <c r="E282" t="s">
-        <v>431</v>
-      </c>
-      <c r="F282" t="s">
-        <v>341</v>
-      </c>
-      <c r="G282" t="s">
-        <v>208</v>
-      </c>
-      <c r="H282" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="B285" t="s">
-        <v>433</v>
-      </c>
-      <c r="C285" t="n">
-        <v>3.107</v>
-      </c>
-      <c r="D285" t="s">
-        <v>184</v>
-      </c>
-      <c r="E285" t="s">
-        <v>434</v>
-      </c>
-      <c r="F285" t="s">
-        <v>315</v>
-      </c>
-      <c r="G285" t="s">
-        <v>14</v>
-      </c>
-      <c r="H285" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="A287" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="B288" t="s">
-        <v>436</v>
-      </c>
-      <c r="C288" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D288" t="s">
-        <v>182</v>
-      </c>
-      <c r="E288" t="s">
-        <v>217</v>
-      </c>
-      <c r="F288" t="s">
-        <v>77</v>
-      </c>
-      <c r="G288" t="s">
-        <v>77</v>
-      </c>
-      <c r="H288" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" t="s">
-        <v>437</v>
+      <c r="D290" t="s">
+        <v>440</v>
+      </c>
+      <c r="E290" t="s">
+        <v>349</v>
+      </c>
+      <c r="F290" t="s">
+        <v>441</v>
+      </c>
+      <c r="G290" t="s">
+        <v>440</v>
+      </c>
+      <c r="H290" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="B291" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C291" t="n">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="D291" t="s">
-        <v>438</v>
+        <v>22</v>
       </c>
       <c r="E291" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="F291" t="s">
         <v>14</v>
@@ -5057,24 +5212,24 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="B294" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C294" t="n">
-        <v>3.375</v>
+        <v>3.533</v>
       </c>
       <c r="D294" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="E294" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F294" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G294" t="s">
         <v>14</v>
@@ -5083,291 +5238,668 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
-      <c r="B295" t="s">
-        <v>442</v>
-      </c>
-      <c r="C295" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="D295" t="s">
-        <v>443</v>
-      </c>
-      <c r="E295" t="s">
-        <v>444</v>
-      </c>
-      <c r="F295" t="s">
-        <v>36</v>
-      </c>
-      <c r="G295" t="s">
-        <v>14</v>
-      </c>
-      <c r="H295" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="296" spans="1:8">
-      <c r="B296" t="s">
-        <v>445</v>
-      </c>
-      <c r="C296" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="D296" t="s">
+      <c r="A296" t="s">
         <v>446</v>
       </c>
-      <c r="E296" t="s">
-        <v>75</v>
-      </c>
-      <c r="F296" t="s">
+    </row>
+    <row r="297" spans="1:8">
+      <c r="B297" t="s">
+        <v>447</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="D297" t="s">
+        <v>448</v>
+      </c>
+      <c r="E297" t="s">
+        <v>63</v>
+      </c>
+      <c r="F297" t="s">
+        <v>147</v>
+      </c>
+      <c r="G297" t="s">
+        <v>14</v>
+      </c>
+      <c r="H297" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="B300" t="s">
+        <v>450</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="D300" t="s">
         <v>77</v>
       </c>
-      <c r="G296" t="s">
-        <v>447</v>
-      </c>
-      <c r="H296" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="B299" t="s">
-        <v>449</v>
-      </c>
-      <c r="C299" t="n">
-        <v>3.292</v>
-      </c>
-      <c r="D299" t="s">
-        <v>441</v>
-      </c>
-      <c r="E299" t="s">
-        <v>68</v>
-      </c>
-      <c r="F299" t="s">
-        <v>181</v>
-      </c>
-      <c r="G299" t="s">
-        <v>14</v>
-      </c>
-      <c r="H299" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
-        <v>450</v>
+      <c r="E300" t="s">
+        <v>451</v>
+      </c>
+      <c r="F300" t="s">
+        <v>359</v>
+      </c>
+      <c r="G300" t="s">
+        <v>216</v>
+      </c>
+      <c r="H300" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:8">
-      <c r="B302" t="s">
-        <v>451</v>
-      </c>
-      <c r="C302" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D302" t="s">
-        <v>182</v>
-      </c>
-      <c r="E302" t="s">
-        <v>189</v>
-      </c>
-      <c r="F302" t="s">
-        <v>14</v>
-      </c>
-      <c r="G302" t="s">
-        <v>14</v>
-      </c>
-      <c r="H302" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
+      <c r="A302" t="s">
         <v>452</v>
       </c>
     </row>
+    <row r="303" spans="1:8">
+      <c r="B303" t="s">
+        <v>453</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="D303" t="s">
+        <v>454</v>
+      </c>
+      <c r="E303" t="s">
+        <v>147</v>
+      </c>
+      <c r="F303" t="s">
+        <v>14</v>
+      </c>
+      <c r="G303" t="s">
+        <v>14</v>
+      </c>
+      <c r="H303" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="305" spans="1:8">
-      <c r="B305" t="s">
-        <v>453</v>
-      </c>
-      <c r="C305" t="n">
-        <v>2.846</v>
-      </c>
-      <c r="D305" t="s">
-        <v>454</v>
-      </c>
-      <c r="E305" t="s">
-        <v>167</v>
-      </c>
-      <c r="F305" t="s">
+      <c r="A305" t="s">
         <v>455</v>
       </c>
-      <c r="G305" t="s">
-        <v>14</v>
-      </c>
-      <c r="H305" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
+    </row>
+    <row r="306" spans="1:8">
+      <c r="B306" t="s">
         <v>456</v>
       </c>
+      <c r="C306" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="D306" t="s">
+        <v>103</v>
+      </c>
+      <c r="E306" t="s">
+        <v>457</v>
+      </c>
+      <c r="F306" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" t="s">
+        <v>393</v>
+      </c>
+      <c r="H306" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="308" spans="1:8">
-      <c r="B308" t="s">
-        <v>457</v>
-      </c>
-      <c r="C308" t="n">
-        <v>4</v>
-      </c>
-      <c r="D308" t="s">
-        <v>22</v>
-      </c>
-      <c r="E308" t="s">
-        <v>14</v>
-      </c>
-      <c r="F308" t="s">
-        <v>14</v>
-      </c>
-      <c r="G308" t="s">
-        <v>14</v>
-      </c>
-      <c r="H308" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
+      <c r="A308" t="s">
         <v>458</v>
       </c>
     </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
+        <v>459</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3.107</v>
+      </c>
+      <c r="D309" t="s">
+        <v>190</v>
+      </c>
+      <c r="E309" t="s">
+        <v>460</v>
+      </c>
+      <c r="F309" t="s">
+        <v>331</v>
+      </c>
+      <c r="G309" t="s">
+        <v>14</v>
+      </c>
+      <c r="H309" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="311" spans="1:8">
-      <c r="B311" t="s">
-        <v>457</v>
-      </c>
-      <c r="C311" t="n">
-        <v>4</v>
-      </c>
-      <c r="D311" t="s">
-        <v>22</v>
-      </c>
-      <c r="E311" t="s">
-        <v>14</v>
-      </c>
-      <c r="F311" t="s">
-        <v>14</v>
-      </c>
-      <c r="G311" t="s">
-        <v>14</v>
-      </c>
-      <c r="H311" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
-        <v>459</v>
+      <c r="A311" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
+        <v>462</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D312" t="s">
+        <v>103</v>
+      </c>
+      <c r="E312" t="s">
+        <v>231</v>
+      </c>
+      <c r="F312" t="s">
+        <v>84</v>
+      </c>
+      <c r="G312" t="s">
+        <v>84</v>
+      </c>
+      <c r="H312" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:8">
-      <c r="B314" t="s">
-        <v>460</v>
-      </c>
-      <c r="C314" t="n">
-        <v>3.711</v>
-      </c>
-      <c r="D314" t="s">
-        <v>461</v>
-      </c>
-      <c r="E314" t="s">
-        <v>462</v>
-      </c>
-      <c r="F314" t="s">
-        <v>14</v>
-      </c>
-      <c r="G314" t="s">
-        <v>14</v>
-      </c>
-      <c r="H314" t="s">
-        <v>326</v>
+      <c r="A314" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="B315" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C315" t="n">
-        <v>3.368</v>
+        <v>3.92</v>
       </c>
       <c r="D315" t="s">
         <v>464</v>
       </c>
       <c r="E315" t="s">
+        <v>195</v>
+      </c>
+      <c r="F315" t="s">
+        <v>14</v>
+      </c>
+      <c r="G315" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
         <v>465</v>
       </c>
-      <c r="F315" t="s">
+    </row>
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
         <v>466</v>
       </c>
-      <c r="G315" t="s">
+      <c r="C318" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D318" t="s">
+        <v>63</v>
+      </c>
+      <c r="E318" t="s">
         <v>467</v>
       </c>
-      <c r="H315" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="B316" t="s">
-        <v>469</v>
-      </c>
-      <c r="C316" t="n">
-        <v>2.941</v>
-      </c>
-      <c r="D316" t="s">
-        <v>365</v>
-      </c>
-      <c r="E316" t="s">
-        <v>76</v>
-      </c>
-      <c r="F316" t="s">
-        <v>470</v>
-      </c>
-      <c r="G316" t="s">
-        <v>471</v>
-      </c>
-      <c r="H316" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" t="s">
-        <v>472</v>
+      <c r="F318" t="s">
+        <v>75</v>
+      </c>
+      <c r="G318" t="s">
+        <v>14</v>
+      </c>
+      <c r="H318" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="B319" t="s">
+        <v>468</v>
+      </c>
+      <c r="C319" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="D319" t="s">
+        <v>469</v>
+      </c>
+      <c r="E319" t="s">
+        <v>470</v>
+      </c>
+      <c r="F319" t="s">
+        <v>36</v>
+      </c>
+      <c r="G319" t="s">
+        <v>14</v>
+      </c>
+      <c r="H319" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="B320" t="s">
+        <v>471</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="D320" t="s">
+        <v>472</v>
+      </c>
+      <c r="E320" t="s">
+        <v>83</v>
+      </c>
+      <c r="F320" t="s">
+        <v>84</v>
+      </c>
+      <c r="G320" t="s">
         <v>473</v>
       </c>
-      <c r="C319" t="n">
+      <c r="H320" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="B323" t="s">
+        <v>475</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D323" t="s">
+        <v>94</v>
+      </c>
+      <c r="E323" t="s">
+        <v>91</v>
+      </c>
+      <c r="F323" t="s">
+        <v>180</v>
+      </c>
+      <c r="G323" t="s">
+        <v>14</v>
+      </c>
+      <c r="H323" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="B326" t="s">
+        <v>477</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D326" t="s">
+        <v>478</v>
+      </c>
+      <c r="E326" t="s">
+        <v>10</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="B327" t="s">
+        <v>479</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D327" t="s">
+        <v>480</v>
+      </c>
+      <c r="E327" t="s">
+        <v>481</v>
+      </c>
+      <c r="F327" t="s">
+        <v>48</v>
+      </c>
+      <c r="G327" t="s">
+        <v>14</v>
+      </c>
+      <c r="H327" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="B328" t="s">
+        <v>482</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D328" t="s">
+        <v>78</v>
+      </c>
+      <c r="E328" t="s">
+        <v>77</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>14</v>
+      </c>
+      <c r="H328" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="B331" t="s">
+        <v>484</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D331" t="s">
+        <v>106</v>
+      </c>
+      <c r="E331" t="s">
+        <v>359</v>
+      </c>
+      <c r="F331" t="s">
+        <v>331</v>
+      </c>
+      <c r="G331" t="s">
+        <v>216</v>
+      </c>
+      <c r="H331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="B332" t="s">
+        <v>485</v>
+      </c>
+      <c r="C332" t="n">
+        <v>3.292</v>
+      </c>
+      <c r="D332" t="s">
+        <v>467</v>
+      </c>
+      <c r="E332" t="s">
+        <v>74</v>
+      </c>
+      <c r="F332" t="s">
+        <v>188</v>
+      </c>
+      <c r="G332" t="s">
+        <v>14</v>
+      </c>
+      <c r="H332" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="B335" t="s">
+        <v>487</v>
+      </c>
+      <c r="C335" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D335" t="s">
+        <v>103</v>
+      </c>
+      <c r="E335" t="s">
+        <v>197</v>
+      </c>
+      <c r="F335" t="s">
+        <v>14</v>
+      </c>
+      <c r="G335" t="s">
+        <v>14</v>
+      </c>
+      <c r="H335" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="B338" t="s">
+        <v>489</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="D338" t="s">
+        <v>490</v>
+      </c>
+      <c r="E338" t="s">
+        <v>174</v>
+      </c>
+      <c r="F338" t="s">
+        <v>491</v>
+      </c>
+      <c r="G338" t="s">
+        <v>14</v>
+      </c>
+      <c r="H338" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="B341" t="s">
+        <v>493</v>
+      </c>
+      <c r="C341" t="n">
+        <v>4</v>
+      </c>
+      <c r="D341" t="s">
+        <v>22</v>
+      </c>
+      <c r="E341" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" t="s">
+        <v>14</v>
+      </c>
+      <c r="G341" t="s">
+        <v>14</v>
+      </c>
+      <c r="H341" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="B344" t="s">
+        <v>493</v>
+      </c>
+      <c r="C344" t="n">
+        <v>4</v>
+      </c>
+      <c r="D344" t="s">
+        <v>22</v>
+      </c>
+      <c r="E344" t="s">
+        <v>14</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s">
+        <v>14</v>
+      </c>
+      <c r="H344" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="B347" t="s">
+        <v>496</v>
+      </c>
+      <c r="C347" t="n">
+        <v>3.711</v>
+      </c>
+      <c r="D347" t="s">
+        <v>497</v>
+      </c>
+      <c r="E347" t="s">
+        <v>498</v>
+      </c>
+      <c r="F347" t="s">
+        <v>14</v>
+      </c>
+      <c r="G347" t="s">
+        <v>14</v>
+      </c>
+      <c r="H347" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="B348" t="s">
+        <v>499</v>
+      </c>
+      <c r="C348" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="D348" t="s">
+        <v>500</v>
+      </c>
+      <c r="E348" t="s">
+        <v>501</v>
+      </c>
+      <c r="F348" t="s">
+        <v>502</v>
+      </c>
+      <c r="G348" t="s">
+        <v>503</v>
+      </c>
+      <c r="H348" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="B349" t="s">
+        <v>505</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="D349" t="s">
+        <v>383</v>
+      </c>
+      <c r="E349" t="s">
+        <v>63</v>
+      </c>
+      <c r="F349" t="s">
+        <v>506</v>
+      </c>
+      <c r="G349" t="s">
+        <v>507</v>
+      </c>
+      <c r="H349" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="B352" t="s">
+        <v>456</v>
+      </c>
+      <c r="C352" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D352" t="s">
+        <v>509</v>
+      </c>
+      <c r="E352" t="s">
+        <v>126</v>
+      </c>
+      <c r="F352" t="s">
+        <v>14</v>
+      </c>
+      <c r="G352" t="s">
+        <v>14</v>
+      </c>
+      <c r="H352" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="B355" t="s">
+        <v>511</v>
+      </c>
+      <c r="C355" t="n">
         <v>3.625</v>
       </c>
-      <c r="D319" t="s">
-        <v>205</v>
-      </c>
-      <c r="E319" t="s">
-        <v>441</v>
-      </c>
-      <c r="F319" t="s">
-        <v>14</v>
-      </c>
-      <c r="G319" t="s">
-        <v>14</v>
-      </c>
-      <c r="H319" t="s">
+      <c r="D355" t="s">
+        <v>213</v>
+      </c>
+      <c r="E355" t="s">
+        <v>467</v>
+      </c>
+      <c r="F355" t="s">
+        <v>14</v>
+      </c>
+      <c r="G355" t="s">
+        <v>14</v>
+      </c>
+      <c r="H355" t="s">
         <v>14</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 LA.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 LA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ANTH-205</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>6.25%</t>
   </si>
   <si>
+    <t>5.88%</t>
+  </si>
+  <si>
     <t>ANTH-660</t>
   </si>
   <si>
@@ -124,9 +130,6 @@
     <t>94.12%</t>
   </si>
   <si>
-    <t>5.88%</t>
-  </si>
-  <si>
     <t>ARAB-301</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t>6.82%</t>
   </si>
   <si>
+    <t>2.22%</t>
+  </si>
+  <si>
     <t>STREET J</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>2.33%</t>
   </si>
   <si>
+    <t>2.27%</t>
+  </si>
+  <si>
     <t>LOCKHART L</t>
   </si>
   <si>
@@ -223,6 +232,9 @@
     <t>14.89%</t>
   </si>
   <si>
+    <t>4.08%</t>
+  </si>
+  <si>
     <t>WILSON M</t>
   </si>
   <si>
@@ -244,6 +256,9 @@
     <t>12.50%</t>
   </si>
   <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>HINCK R</t>
   </si>
   <si>
@@ -253,15 +268,15 @@
     <t>71.43%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>KITSCH S</t>
   </si>
   <si>
     <t>76.00%</t>
   </si>
   <si>
-    <t>4.00%</t>
-  </si>
-  <si>
     <t>TERRY A</t>
   </si>
   <si>
@@ -271,6 +286,9 @@
     <t>5.56%</t>
   </si>
   <si>
+    <t>5.26%</t>
+  </si>
+  <si>
     <t>ALTENHOFEN B</t>
   </si>
   <si>
@@ -283,7 +301,7 @@
     <t>11.36%</t>
   </si>
   <si>
-    <t>2.27%</t>
+    <t>6.38%</t>
   </si>
   <si>
     <t>BOGUE P</t>
@@ -301,7 +319,7 @@
     <t>36.36%</t>
   </si>
   <si>
-    <t>4.55%</t>
+    <t>4.35%</t>
   </si>
   <si>
     <t>COMM-210</t>
@@ -370,9 +388,6 @@
     <t>8.70%</t>
   </si>
   <si>
-    <t>4.35%</t>
-  </si>
-  <si>
     <t>COMM-440</t>
   </si>
   <si>
@@ -385,9 +400,6 @@
     <t>31.58%</t>
   </si>
   <si>
-    <t>5.26%</t>
-  </si>
-  <si>
     <t>COMM-443</t>
   </si>
   <si>
@@ -397,6 +409,9 @@
     <t>10.00%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>ECMT-463</t>
   </si>
   <si>
@@ -430,6 +445,9 @@
     <t>2.30%</t>
   </si>
   <si>
+    <t>3.33%</t>
+  </si>
+  <si>
     <t>ECON-203</t>
   </si>
   <si>
@@ -499,7 +517,7 @@
     <t>63.33%</t>
   </si>
   <si>
-    <t>3.33%</t>
+    <t>9.09%</t>
   </si>
   <si>
     <t>ECON-465</t>
@@ -559,9 +577,6 @@
     <t>22.73%</t>
   </si>
   <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>ENGL-301</t>
   </si>
   <si>
@@ -640,6 +655,9 @@
     <t>10.71%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>SNIDER J</t>
   </si>
   <si>
@@ -667,24 +685,21 @@
     <t>7.14%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>BUSTAMANTE C</t>
   </si>
   <si>
     <t>10.34%</t>
   </si>
   <si>
-    <t>3.45%</t>
-  </si>
-  <si>
     <t>HAWKINS C</t>
   </si>
   <si>
     <t>26.67%</t>
   </si>
   <si>
-    <t>6.67%</t>
-  </si>
-  <si>
     <t>YI J</t>
   </si>
   <si>
@@ -751,6 +766,9 @@
     <t>68.75%</t>
   </si>
   <si>
+    <t>3.03%</t>
+  </si>
+  <si>
     <t>ENGL-352</t>
   </si>
   <si>
@@ -868,6 +886,9 @@
     <t>1.85%</t>
   </si>
   <si>
+    <t>0.92%</t>
+  </si>
+  <si>
     <t>HIST-368</t>
   </si>
   <si>
@@ -1012,9 +1033,6 @@
     <t>14.29%</t>
   </si>
   <si>
-    <t>4.76%</t>
-  </si>
-  <si>
     <t>PHIL-485</t>
   </si>
   <si>
@@ -1039,6 +1057,9 @@
     <t>1.16%</t>
   </si>
   <si>
+    <t>0.57%</t>
+  </si>
+  <si>
     <t>FERGUSON G</t>
   </si>
   <si>
@@ -1072,6 +1093,9 @@
     <t>10.87%</t>
   </si>
   <si>
+    <t>3.66%</t>
+  </si>
+  <si>
     <t>LIM P</t>
   </si>
   <si>
@@ -1087,6 +1111,9 @@
     <t>3.83%</t>
   </si>
   <si>
+    <t>2.66%</t>
+  </si>
+  <si>
     <t>POLS-229</t>
   </si>
   <si>
@@ -1135,6 +1162,9 @@
     <t>17.14%</t>
   </si>
   <si>
+    <t>2.78%</t>
+  </si>
+  <si>
     <t>POLS-604</t>
   </si>
   <si>
@@ -1174,6 +1204,9 @@
     <t>0.74%</t>
   </si>
   <si>
+    <t>0.73%</t>
+  </si>
+  <si>
     <t>SCHLEGEL R</t>
   </si>
   <si>
@@ -1198,9 +1231,6 @@
     <t>6.06%</t>
   </si>
   <si>
-    <t>3.03%</t>
-  </si>
-  <si>
     <t>PSYC-204</t>
   </si>
   <si>
@@ -1511,6 +1541,9 @@
   </si>
   <si>
     <t>24.44%</t>
+  </si>
+  <si>
+    <t>1.10%</t>
   </si>
   <si>
     <t>MILLER J</t>
@@ -1587,12 +1620,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1886,15 +1918,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H355"/>
+  <dimension ref="A1:I355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1919,3988 +1951,4444 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.778</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>2.848</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>3.625</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
         <v>3.8</v>
       </c>
       <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" t="s">
         <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>30</v>
       </c>
       <c r="C22" t="n">
         <v>3.941</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
         <v>3.75</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
         <v>3.8</v>
       </c>
       <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
         <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>30</v>
       </c>
       <c r="C31" t="n">
         <v>3.833</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="n">
         <v>2.96</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="n">
         <v>3.38</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C36" t="n">
         <v>2.958</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" t="n">
         <v>3.088</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C38" t="n">
         <v>3.292</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C39" t="n">
         <v>3.1665</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C40" t="n">
         <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C41" t="n">
         <v>3.167</v>
       </c>
       <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
         <v>43</v>
       </c>
-      <c r="E41" t="s">
-        <v>42</v>
-      </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C42" t="n">
         <v>3.208</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C43" t="n">
         <v>3.286</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C44" t="n">
         <v>3.16</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>80</v>
       </c>
-      <c r="F44" t="s">
-        <v>81</v>
-      </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C45" t="n">
         <v>3.278</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C46" t="n">
         <v>3.143</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C47" t="n">
         <v>3.199</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C48" t="n">
         <v>3.273</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="B51" t="s">
-        <v>90</v>
       </c>
       <c r="C51" t="n">
         <v>3.333</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C52" t="n">
         <v>3.316</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C55" t="n">
         <v>3.125</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" t="s">
         <v>64</v>
-      </c>
-      <c r="H55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" t="s">
-        <v>61</v>
       </c>
       <c r="C58" t="n">
         <v>3.357</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C61" t="n">
         <v>3.114</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G61" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C64" t="n">
         <v>3.826</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C67" t="n">
         <v>3.579</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C70" t="n">
         <v>3.2</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C73" t="n">
         <v>2.781</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G73" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C76" t="n">
         <v>2.678</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G76" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C79" t="n">
         <v>2.837</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G79" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C82" t="n">
         <v>2.204</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G82" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H82" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C85" t="n">
         <v>3.197</v>
       </c>
       <c r="D85" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>162</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C88" t="n">
         <v>2.833</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E88" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C91" t="n">
         <v>3.158</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C94" t="n">
         <v>3.742</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C97" t="n">
         <v>3.706</v>
       </c>
       <c r="D97" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E97" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C98" t="n">
         <v>3.513</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C101" t="n">
         <v>3.273</v>
       </c>
       <c r="D101" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E101" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H101" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C104" t="n">
         <v>3.654</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H104" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C105" t="n">
         <v>2.458</v>
       </c>
       <c r="D105" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G105" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H105" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C106" t="n">
         <v>3.393</v>
       </c>
       <c r="D106" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C107" t="n">
         <v>3.28</v>
       </c>
       <c r="D107" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E107" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C108" t="n">
         <v>2.792</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G108" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H108" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C109" t="n">
         <v>3.552</v>
       </c>
       <c r="D109" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E109" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C110" t="n">
         <v>3.923</v>
       </c>
       <c r="D110" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E110" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C111" t="n">
         <v>3.893</v>
       </c>
       <c r="D111" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C112" t="n">
         <v>3.552</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E112" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C113" t="n">
         <v>3.583</v>
       </c>
       <c r="D113" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E113" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F113" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C114" t="n">
         <v>2.964</v>
       </c>
       <c r="D114" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H114" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C115" t="n">
         <v>3.345</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E115" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G115" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H115" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C116" t="n">
         <v>2.9</v>
       </c>
       <c r="D116" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E116" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C117" t="n">
         <v>3.862</v>
       </c>
       <c r="D117" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C118" t="n">
         <v>3.724</v>
       </c>
       <c r="D118" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C119" t="n">
         <v>3.207</v>
       </c>
       <c r="D119" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F119" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H119" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C120" t="n">
         <v>3.37</v>
       </c>
       <c r="D120" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E120" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F120" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I120" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C121" t="n">
         <v>3.333</v>
       </c>
       <c r="D121" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E121" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F121" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C124" t="n">
         <v>2.933</v>
       </c>
       <c r="D124" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E124" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F124" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H124" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C127" t="n">
         <v>3.226</v>
       </c>
       <c r="D127" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G127" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H127" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>245</v>
+      </c>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C130" t="n">
         <v>3.688</v>
       </c>
       <c r="D130" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E130" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I130" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C133" t="n">
         <v>3.167</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E133" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F133" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H133" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C136" t="n">
         <v>2.88</v>
       </c>
       <c r="D136" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E136" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F136" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H136" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C139" t="n">
         <v>3.294</v>
       </c>
       <c r="D139" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E139" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H139" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I139" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C142" t="n">
         <v>3.235</v>
       </c>
       <c r="D142" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E142" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H142" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C145" t="n">
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H145" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C148" t="n">
         <v>2.917</v>
       </c>
       <c r="D148" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C154" t="n">
         <v>3.8</v>
       </c>
       <c r="D154" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C157" t="n">
         <v>2.5</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H157" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C160" t="n">
         <v>3.276</v>
       </c>
       <c r="D160" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E160" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F160" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G160" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C163" t="n">
         <v>2.931</v>
       </c>
       <c r="D163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E163" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F163" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G163" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H163" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C166" t="n">
         <v>2.889</v>
       </c>
       <c r="D166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E166" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F166" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G166" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H166" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="I166" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C169" t="n">
         <v>3.194</v>
       </c>
       <c r="D169" t="s">
+        <v>293</v>
+      </c>
+      <c r="E169" t="s">
         <v>286</v>
       </c>
-      <c r="E169" t="s">
-        <v>280</v>
-      </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C172" t="n">
         <v>2.805</v>
       </c>
       <c r="D172" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E172" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F172" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H172" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>299</v>
+      </c>
+      <c r="I172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C175" t="n">
         <v>2.967</v>
       </c>
       <c r="D175" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E175" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H175" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C178" t="n">
         <v>3.454</v>
       </c>
       <c r="D178" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C184" t="n">
         <v>3.75</v>
       </c>
       <c r="D184" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F184" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C190" t="n">
         <v>3.55</v>
       </c>
       <c r="D190" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F190" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I190" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C193" t="n">
         <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H193" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C196" t="n">
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C199" t="n">
         <v>3.893</v>
       </c>
       <c r="D199" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E199" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F199" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C200" t="n">
         <v>3.792</v>
       </c>
       <c r="D200" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E200" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C203" t="n">
         <v>3.158</v>
       </c>
       <c r="D203" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E203" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F203" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H203" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>324</v>
+      </c>
+      <c r="I203" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C204" t="n">
         <v>2.326</v>
       </c>
       <c r="D204" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E204" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F204" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G204" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H204" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>329</v>
+      </c>
+      <c r="I204" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C205" t="n">
         <v>2.675</v>
       </c>
       <c r="D205" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E205" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F205" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G205" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H205" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>334</v>
+      </c>
+      <c r="I205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C208" t="n">
         <v>3.714</v>
       </c>
       <c r="D208" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E208" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>332</v>
+        <v>131</v>
       </c>
       <c r="H208" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C211" t="n">
         <v>3.4</v>
       </c>
       <c r="D211" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E211" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H211" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I211" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C214" t="n">
         <v>2.913</v>
       </c>
       <c r="D214" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E214" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F214" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G214" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I214" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C215" t="n">
         <v>3.411</v>
       </c>
       <c r="D215" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E215" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F215" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G215" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H215" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>351</v>
+      </c>
+      <c r="I215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C218" t="n">
         <v>2.005</v>
       </c>
       <c r="D218" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E218" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F218" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G218" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H218" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>358</v>
+      </c>
+      <c r="I218" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C219" t="n">
         <v>2.781</v>
       </c>
       <c r="D219" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E219" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F219" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G219" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H219" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>162</v>
+      </c>
+      <c r="I219" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C222" t="n">
         <v>3.571</v>
       </c>
       <c r="D222" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E222" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G222" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H222" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C225" t="n">
         <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H225" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I225" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C228" t="n">
         <v>3.593</v>
       </c>
       <c r="D228" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="E228" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F228" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G228" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H228" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I228" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C231" t="n">
         <v>3.029</v>
       </c>
       <c r="D231" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E231" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F231" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G231" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H231" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I231" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C234" t="n">
         <v>3.657</v>
       </c>
       <c r="D234" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E234" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F234" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G234" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H234" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I234" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C237" t="n">
         <v>4</v>
       </c>
       <c r="D237" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E237" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G237" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H237" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C240" t="n">
         <v>4</v>
       </c>
       <c r="D240" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H240" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C243" t="n">
         <v>3.833</v>
       </c>
       <c r="D243" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E243" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H243" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C246" t="n">
         <v>2.779</v>
       </c>
       <c r="D246" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E246" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F246" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G246" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="H246" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>395</v>
+      </c>
+      <c r="I246" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C247" t="n">
         <v>3.019</v>
       </c>
       <c r="D247" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="E247" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="F247" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G247" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H247" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>400</v>
+      </c>
+      <c r="I247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C250" t="n">
         <v>3.428</v>
       </c>
       <c r="D250" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E250" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F250" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="G250" t="s">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="H250" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I250" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C253" t="n">
         <v>2.41</v>
       </c>
       <c r="D253" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E253" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F253" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="G253" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H253" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="B256" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C256" t="n">
         <v>4</v>
       </c>
       <c r="D256" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E256" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G256" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H256" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="B259" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C259" t="n">
         <v>3.674</v>
       </c>
       <c r="D259" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="E259" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F259" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G259" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H259" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C260" t="n">
         <v>3.304</v>
       </c>
       <c r="D260" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="E260" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F260" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G260" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H260" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C263" t="n">
         <v>3.676</v>
       </c>
       <c r="D263" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E263" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F263" t="s">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="G263" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H263" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C266" t="n">
         <v>3.644</v>
       </c>
       <c r="D266" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E266" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G266" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H266" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I266" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C269" t="n">
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E269" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F269" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="G269" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H269" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>431</v>
+      </c>
+      <c r="I269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C272" t="n">
         <v>3.617</v>
       </c>
       <c r="D272" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="E272" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="F272" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="G272" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H272" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I272" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C275" t="n">
         <v>4</v>
       </c>
       <c r="D275" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E275" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G275" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H275" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C278" t="n">
         <v>3.909</v>
       </c>
       <c r="D278" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E278" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H278" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C281" t="n">
         <v>3.857</v>
       </c>
       <c r="D281" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E281" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H281" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C284" t="n">
         <v>3.917</v>
       </c>
       <c r="D284" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="E284" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F284" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G284" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H284" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C287" t="n">
         <v>3.333</v>
       </c>
       <c r="D287" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E287" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F287" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G287" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H287" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C290" t="n">
         <v>2.348</v>
       </c>
       <c r="D290" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E290" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F290" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="G290" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="H290" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I290" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C291" t="n">
         <v>4</v>
       </c>
       <c r="D291" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E291" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F291" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G291" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H291" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="B294" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C294" t="n">
         <v>3.533</v>
       </c>
       <c r="D294" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E294" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F294" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G294" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H294" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I294" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C297" t="n">
         <v>2.944</v>
       </c>
       <c r="D297" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E297" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F297" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G297" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H297" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C300" t="n">
         <v>2.714</v>
       </c>
       <c r="D300" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E300" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="F300" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G300" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H300" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I300" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C303" t="n">
         <v>3.722</v>
       </c>
       <c r="D303" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E303" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F303" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G303" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H303" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I303" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="B306" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C306" t="n">
         <v>2.939</v>
       </c>
       <c r="D306" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E306" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="F306" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G306" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="H306" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I306" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="B309" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C309" t="n">
         <v>3.107</v>
       </c>
       <c r="D309" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E309" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F309" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G309" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H309" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I309" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="B312" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C312" t="n">
         <v>3.167</v>
       </c>
       <c r="D312" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E312" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F312" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G312" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H312" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I312" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="B315" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C315" t="n">
         <v>3.92</v>
       </c>
       <c r="D315" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E315" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F315" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G315" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H315" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="B318" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C318" t="n">
         <v>3.375</v>
       </c>
       <c r="D318" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E318" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F318" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G318" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H318" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="B319" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C319" t="n">
         <v>3.059</v>
       </c>
       <c r="D319" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E319" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F319" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G319" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H319" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I319" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="B320" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C320" t="n">
         <v>3.111</v>
       </c>
       <c r="D320" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="E320" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F320" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G320" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H320" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="B323" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C323" t="n">
         <v>2.864</v>
       </c>
       <c r="D323" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E323" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F323" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G323" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H323" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="B326" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C326" t="n">
         <v>3.818</v>
       </c>
       <c r="D326" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E326" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F326" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G326" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H326" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="B327" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C327" t="n">
         <v>3.16</v>
       </c>
       <c r="D327" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E327" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F327" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G327" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H327" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="B328" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C328" t="n">
         <v>3.714</v>
       </c>
       <c r="D328" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E328" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F328" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G328" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H328" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C331" t="n">
         <v>3.071</v>
       </c>
       <c r="D331" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E331" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F331" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G331" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H331" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I331" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C332" t="n">
         <v>3.292</v>
       </c>
       <c r="D332" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E332" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F332" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G332" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H332" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I332" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C335" t="n">
         <v>3.333</v>
       </c>
       <c r="D335" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E335" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F335" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G335" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H335" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="B338" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C338" t="n">
         <v>2.846</v>
       </c>
       <c r="D338" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E338" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F338" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G338" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H338" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I338" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="B341" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C341" t="n">
         <v>4</v>
       </c>
       <c r="D341" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E341" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F341" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G341" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H341" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I341" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="B344" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C344" t="n">
         <v>4</v>
       </c>
       <c r="D344" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E344" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F344" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G344" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H344" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I344" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="B347" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C347" t="n">
         <v>3.711</v>
       </c>
       <c r="D347" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E347" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F347" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G347" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H347" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+        <v>351</v>
+      </c>
+      <c r="I347" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
       <c r="B348" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C348" t="n">
         <v>3.368</v>
       </c>
       <c r="D348" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="E348" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F348" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="G348" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="H348" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>515</v>
+      </c>
+      <c r="I348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="B349" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C349" t="n">
         <v>2.941</v>
       </c>
       <c r="D349" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E349" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F349" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="G349" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="H349" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I349" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
       <c r="A351" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="B352" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C352" t="n">
         <v>3.9</v>
       </c>
       <c r="D352" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="E352" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F352" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G352" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H352" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I352" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
       <c r="A354" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="B355" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C355" t="n">
         <v>3.625</v>
       </c>
       <c r="D355" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E355" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F355" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G355" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H355" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I355" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 LA.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 LA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
   <si>
     <t>Course</t>
   </si>
@@ -223,6 +223,18 @@
     <t>14.89%</t>
   </si>
   <si>
+    <t>YADLIN S</t>
+  </si>
+  <si>
+    <t>JAMES E</t>
+  </si>
+  <si>
+    <t>54.17%</t>
+  </si>
+  <si>
+    <t>12.50%</t>
+  </si>
+  <si>
     <t>WILSON M</t>
   </si>
   <si>
@@ -232,18 +244,6 @@
     <t>40.00%</t>
   </si>
   <si>
-    <t>YADLIN S</t>
-  </si>
-  <si>
-    <t>JAMES E</t>
-  </si>
-  <si>
-    <t>54.17%</t>
-  </si>
-  <si>
-    <t>12.50%</t>
-  </si>
-  <si>
     <t>HINCK R</t>
   </si>
   <si>
@@ -1213,6 +1213,24 @@
     <t>46.88%</t>
   </si>
   <si>
+    <t>PSYC-210</t>
+  </si>
+  <si>
+    <t>CARTER-SOWELL A</t>
+  </si>
+  <si>
+    <t>PSYC-300</t>
+  </si>
+  <si>
+    <t>MINER-RUBINO K</t>
+  </si>
+  <si>
+    <t>55.00%</t>
+  </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>PSYC-304</t>
   </si>
   <si>
@@ -1261,6 +1279,24 @@
     <t>PSYC-307</t>
   </si>
   <si>
+    <t>SILASI-MANSAT C</t>
+  </si>
+  <si>
+    <t>27.03%</t>
+  </si>
+  <si>
+    <t>32.43%</t>
+  </si>
+  <si>
+    <t>24.32%</t>
+  </si>
+  <si>
+    <t>13.51%</t>
+  </si>
+  <si>
+    <t>2.70%</t>
+  </si>
+  <si>
     <t>VAN W</t>
   </si>
   <si>
@@ -1300,6 +1336,15 @@
     <t>PSYC-319</t>
   </si>
   <si>
+    <t>PSYC-330</t>
+  </si>
+  <si>
+    <t>BALDERRAMA-DURBIN C</t>
+  </si>
+  <si>
+    <t>58.62%</t>
+  </si>
+  <si>
     <t>PSYC-613</t>
   </si>
   <si>
@@ -1444,6 +1489,15 @@
     <t>ROCHA D</t>
   </si>
   <si>
+    <t>GIL-POISA M</t>
+  </si>
+  <si>
+    <t>LAWO-SUKAM A</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
     <t>SPAN-201</t>
   </si>
   <si>
@@ -1550,6 +1604,12 @@
   </si>
   <si>
     <t>CARLEY R</t>
+  </si>
+  <si>
+    <t>58.33%</t>
+  </si>
+  <si>
+    <t>WGST-300</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H355"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,13 +2431,13 @@
         <v>69</v>
       </c>
       <c r="C40" t="n">
-        <v>3.6</v>
+        <v>3.167</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -2391,25 +2451,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
         <v>72</v>
       </c>
-      <c r="C41" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2417,22 +2477,22 @@
         <v>73</v>
       </c>
       <c r="C42" t="n">
-        <v>3.208</v>
+        <v>3.6</v>
       </c>
       <c r="D42" t="s">
         <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2631,7 +2691,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C55" t="n">
         <v>3.125</v>
@@ -2687,7 +2747,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C61" t="n">
         <v>3.114</v>
@@ -2771,7 +2831,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C70" t="n">
         <v>3.2</v>
@@ -2780,7 +2840,7 @@
         <v>125</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
         <v>126</v>
@@ -3200,13 +3260,13 @@
         <v>2.792</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E108" t="s">
         <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G108" t="s">
         <v>64</v>
@@ -3530,7 +3590,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F124" t="s">
         <v>221</v>
@@ -3723,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E145" t="s">
         <v>33</v>
@@ -4093,7 +4153,7 @@
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G184" t="s">
         <v>14</v>
@@ -4380,10 +4440,10 @@
         <v>3.4</v>
       </c>
       <c r="D211" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E211" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -4813,7 +4873,7 @@
         <v>2.41</v>
       </c>
       <c r="D253" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E253" t="s">
         <v>397</v>
@@ -4822,7 +4882,7 @@
         <v>398</v>
       </c>
       <c r="G253" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H253" t="s">
         <v>14</v>
@@ -4838,16 +4898,16 @@
         <v>400</v>
       </c>
       <c r="C256" t="n">
-        <v>4</v>
+        <v>3.448</v>
       </c>
       <c r="D256" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="E256" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="G256" t="s">
         <v>14</v>
@@ -4866,95 +4926,95 @@
         <v>402</v>
       </c>
       <c r="C259" t="n">
-        <v>3.674</v>
+        <v>3.3</v>
       </c>
       <c r="D259" t="s">
         <v>403</v>
       </c>
       <c r="E259" t="s">
+        <v>125</v>
+      </c>
+      <c r="F259" t="s">
+        <v>126</v>
+      </c>
+      <c r="G259" t="s">
+        <v>14</v>
+      </c>
+      <c r="H259" t="s">
         <v>404</v>
       </c>
-      <c r="F259" t="s">
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
         <v>405</v>
       </c>
-      <c r="G259" t="s">
-        <v>14</v>
-      </c>
-      <c r="H259" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="B260" t="s">
+    </row>
+    <row r="262" spans="1:8">
+      <c r="B262" t="s">
         <v>406</v>
       </c>
-      <c r="C260" t="n">
-        <v>3.304</v>
-      </c>
-      <c r="D260" t="s">
+      <c r="C262" t="n">
+        <v>4</v>
+      </c>
+      <c r="D262" t="s">
+        <v>22</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
         <v>407</v>
       </c>
-      <c r="E260" t="s">
+    </row>
+    <row r="265" spans="1:8">
+      <c r="B265" t="s">
         <v>408</v>
       </c>
-      <c r="F260" t="s">
+      <c r="C265" t="n">
+        <v>3.674</v>
+      </c>
+      <c r="D265" t="s">
         <v>409</v>
       </c>
-      <c r="G260" t="s">
-        <v>14</v>
-      </c>
-      <c r="H260" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" t="s">
+      <c r="E265" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="B263" t="s">
+      <c r="F265" t="s">
         <v>411</v>
       </c>
-      <c r="C263" t="n">
-        <v>3.676</v>
-      </c>
-      <c r="D263" t="s">
-        <v>412</v>
-      </c>
-      <c r="E263" t="s">
-        <v>413</v>
-      </c>
-      <c r="F263" t="s">
-        <v>394</v>
-      </c>
-      <c r="G263" t="s">
-        <v>14</v>
-      </c>
-      <c r="H263" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="s">
-        <v>414</v>
+      <c r="G265" t="s">
+        <v>14</v>
+      </c>
+      <c r="H265" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="B266" t="s">
+        <v>412</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.304</v>
+      </c>
+      <c r="D266" t="s">
+        <v>413</v>
+      </c>
+      <c r="E266" t="s">
+        <v>414</v>
+      </c>
+      <c r="F266" t="s">
         <v>415</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3.644</v>
-      </c>
-      <c r="D266" t="s">
-        <v>416</v>
-      </c>
-      <c r="E266" t="s">
-        <v>417</v>
-      </c>
-      <c r="F266" t="s">
-        <v>14</v>
       </c>
       <c r="G266" t="s">
         <v>14</v>
@@ -4965,240 +5025,240 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="B269" t="s">
+        <v>417</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.676</v>
+      </c>
+      <c r="D269" t="s">
+        <v>418</v>
+      </c>
+      <c r="E269" t="s">
         <v>419</v>
       </c>
-      <c r="C269" t="n">
-        <v>3</v>
-      </c>
-      <c r="D269" t="s">
-        <v>193</v>
-      </c>
-      <c r="E269" t="s">
-        <v>193</v>
-      </c>
       <c r="F269" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="G269" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H269" t="s">
-        <v>421</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="B272" t="s">
+        <v>421</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2.676</v>
+      </c>
+      <c r="D272" t="s">
+        <v>422</v>
+      </c>
+      <c r="E272" t="s">
         <v>423</v>
       </c>
-      <c r="C272" t="n">
+      <c r="F272" t="s">
+        <v>424</v>
+      </c>
+      <c r="G272" t="s">
+        <v>425</v>
+      </c>
+      <c r="H272" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="B273" t="s">
+        <v>427</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.644</v>
+      </c>
+      <c r="D273" t="s">
+        <v>428</v>
+      </c>
+      <c r="E273" t="s">
+        <v>429</v>
+      </c>
+      <c r="F273" t="s">
+        <v>14</v>
+      </c>
+      <c r="G273" t="s">
+        <v>14</v>
+      </c>
+      <c r="H273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="B276" t="s">
+        <v>431</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3</v>
+      </c>
+      <c r="D276" t="s">
+        <v>193</v>
+      </c>
+      <c r="E276" t="s">
+        <v>193</v>
+      </c>
+      <c r="F276" t="s">
+        <v>432</v>
+      </c>
+      <c r="G276" t="s">
+        <v>81</v>
+      </c>
+      <c r="H276" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="B279" t="s">
+        <v>435</v>
+      </c>
+      <c r="C279" t="n">
         <v>3.617</v>
       </c>
-      <c r="D272" t="s">
-        <v>424</v>
-      </c>
-      <c r="E272" t="s">
-        <v>425</v>
-      </c>
-      <c r="F272" t="s">
-        <v>426</v>
-      </c>
-      <c r="G272" t="s">
-        <v>14</v>
-      </c>
-      <c r="H272" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="B275" t="s">
-        <v>400</v>
-      </c>
-      <c r="C275" t="n">
+      <c r="D279" t="s">
+        <v>436</v>
+      </c>
+      <c r="E279" t="s">
+        <v>437</v>
+      </c>
+      <c r="F279" t="s">
+        <v>438</v>
+      </c>
+      <c r="G279" t="s">
+        <v>14</v>
+      </c>
+      <c r="H279" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="B282" t="s">
+        <v>406</v>
+      </c>
+      <c r="C282" t="n">
         <v>4</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D282" t="s">
         <v>22</v>
       </c>
-      <c r="E275" t="s">
-        <v>14</v>
-      </c>
-      <c r="F275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" t="s">
-        <v>14</v>
-      </c>
-      <c r="H275" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="B278" t="s">
-        <v>429</v>
-      </c>
-      <c r="C278" t="n">
+      <c r="E282" t="s">
+        <v>14</v>
+      </c>
+      <c r="F282" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282" t="s">
+        <v>14</v>
+      </c>
+      <c r="H282" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="B285" t="s">
+        <v>441</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3.517</v>
+      </c>
+      <c r="D285" t="s">
+        <v>442</v>
+      </c>
+      <c r="E285" t="s">
+        <v>135</v>
+      </c>
+      <c r="F285" t="s">
+        <v>201</v>
+      </c>
+      <c r="G285" t="s">
+        <v>14</v>
+      </c>
+      <c r="H285" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="B288" t="s">
+        <v>444</v>
+      </c>
+      <c r="C288" t="n">
         <v>3.909</v>
       </c>
-      <c r="D278" t="s">
-        <v>430</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="D288" t="s">
+        <v>445</v>
+      </c>
+      <c r="E288" t="s">
         <v>181</v>
       </c>
-      <c r="F278" t="s">
-        <v>14</v>
-      </c>
-      <c r="G278" t="s">
-        <v>14</v>
-      </c>
-      <c r="H278" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="B281" t="s">
-        <v>415</v>
-      </c>
-      <c r="C281" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D281" t="s">
-        <v>432</v>
-      </c>
-      <c r="E281" t="s">
-        <v>331</v>
-      </c>
-      <c r="F281" t="s">
-        <v>14</v>
-      </c>
-      <c r="G281" t="s">
-        <v>14</v>
-      </c>
-      <c r="H281" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="B284" t="s">
-        <v>434</v>
-      </c>
-      <c r="C284" t="n">
-        <v>3.917</v>
-      </c>
-      <c r="D284" t="s">
-        <v>435</v>
-      </c>
-      <c r="E284" t="s">
-        <v>188</v>
-      </c>
-      <c r="F284" t="s">
-        <v>14</v>
-      </c>
-      <c r="G284" t="s">
-        <v>14</v>
-      </c>
-      <c r="H284" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="B287" t="s">
-        <v>437</v>
-      </c>
-      <c r="C287" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D287" t="s">
-        <v>62</v>
-      </c>
-      <c r="E287" t="s">
-        <v>63</v>
-      </c>
-      <c r="F287" t="s">
-        <v>188</v>
-      </c>
-      <c r="G287" t="s">
-        <v>14</v>
-      </c>
-      <c r="H287" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" t="s">
-        <v>438</v>
+      <c r="F288" t="s">
+        <v>14</v>
+      </c>
+      <c r="G288" t="s">
+        <v>14</v>
+      </c>
+      <c r="H288" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="B290" t="s">
-        <v>439</v>
-      </c>
-      <c r="C290" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="D290" t="s">
-        <v>440</v>
-      </c>
-      <c r="E290" t="s">
-        <v>349</v>
-      </c>
-      <c r="F290" t="s">
-        <v>441</v>
-      </c>
-      <c r="G290" t="s">
-        <v>440</v>
-      </c>
-      <c r="H290" t="s">
-        <v>117</v>
+      <c r="A290" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="B291" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C291" t="n">
-        <v>4</v>
+        <v>3.857</v>
       </c>
       <c r="D291" t="s">
-        <v>22</v>
+        <v>447</v>
       </c>
       <c r="E291" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="F291" t="s">
         <v>14</v>
@@ -5212,21 +5272,21 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="B294" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C294" t="n">
-        <v>3.533</v>
+        <v>3.917</v>
       </c>
       <c r="D294" t="s">
-        <v>233</v>
+        <v>450</v>
       </c>
       <c r="E294" t="s">
-        <v>445</v>
+        <v>188</v>
       </c>
       <c r="F294" t="s">
         <v>14</v>
@@ -5240,24 +5300,24 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="B297" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C297" t="n">
-        <v>2.944</v>
+        <v>3.333</v>
       </c>
       <c r="D297" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="E297" t="s">
         <v>63</v>
       </c>
       <c r="F297" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="G297" t="s">
         <v>14</v>
@@ -5268,340 +5328,299 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C300" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="D300" t="s">
+        <v>455</v>
+      </c>
+      <c r="E300" t="s">
+        <v>349</v>
+      </c>
+      <c r="F300" t="s">
+        <v>456</v>
+      </c>
+      <c r="G300" t="s">
+        <v>455</v>
+      </c>
+      <c r="H300" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="B301" t="s">
+        <v>457</v>
+      </c>
+      <c r="C301" t="n">
+        <v>4</v>
+      </c>
+      <c r="D301" t="s">
+        <v>22</v>
+      </c>
+      <c r="E301" t="s">
+        <v>14</v>
+      </c>
+      <c r="F301" t="s">
+        <v>14</v>
+      </c>
+      <c r="G301" t="s">
+        <v>14</v>
+      </c>
+      <c r="H301" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="B304" t="s">
+        <v>459</v>
+      </c>
+      <c r="C304" t="n">
+        <v>3.533</v>
+      </c>
+      <c r="D304" t="s">
+        <v>233</v>
+      </c>
+      <c r="E304" t="s">
+        <v>460</v>
+      </c>
+      <c r="F304" t="s">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s">
+        <v>14</v>
+      </c>
+      <c r="H304" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="B307" t="s">
+        <v>462</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="D307" t="s">
+        <v>463</v>
+      </c>
+      <c r="E307" t="s">
+        <v>63</v>
+      </c>
+      <c r="F307" t="s">
+        <v>147</v>
+      </c>
+      <c r="G307" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="B310" t="s">
+        <v>465</v>
+      </c>
+      <c r="C310" t="n">
         <v>2.714</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D310" t="s">
         <v>77</v>
       </c>
-      <c r="E300" t="s">
-        <v>451</v>
-      </c>
-      <c r="F300" t="s">
+      <c r="E310" t="s">
+        <v>466</v>
+      </c>
+      <c r="F310" t="s">
         <v>359</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G310" t="s">
         <v>216</v>
       </c>
-      <c r="H300" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="B303" t="s">
-        <v>453</v>
-      </c>
-      <c r="C303" t="n">
+      <c r="H310" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="B313" t="s">
+        <v>468</v>
+      </c>
+      <c r="C313" t="n">
         <v>3.722</v>
       </c>
-      <c r="D303" t="s">
-        <v>454</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="D313" t="s">
+        <v>469</v>
+      </c>
+      <c r="E313" t="s">
         <v>147</v>
       </c>
-      <c r="F303" t="s">
-        <v>14</v>
-      </c>
-      <c r="G303" t="s">
-        <v>14</v>
-      </c>
-      <c r="H303" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="B306" t="s">
-        <v>456</v>
-      </c>
-      <c r="C306" t="n">
+      <c r="F313" t="s">
+        <v>14</v>
+      </c>
+      <c r="G313" t="s">
+        <v>14</v>
+      </c>
+      <c r="H313" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="B316" t="s">
+        <v>471</v>
+      </c>
+      <c r="C316" t="n">
         <v>2.939</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D316" t="s">
         <v>103</v>
       </c>
-      <c r="E306" t="s">
-        <v>457</v>
-      </c>
-      <c r="F306" t="s">
+      <c r="E316" t="s">
+        <v>472</v>
+      </c>
+      <c r="F316" t="s">
         <v>10</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G316" t="s">
         <v>393</v>
       </c>
-      <c r="H306" t="s">
+      <c r="H316" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="B309" t="s">
-        <v>459</v>
-      </c>
-      <c r="C309" t="n">
-        <v>3.107</v>
-      </c>
-      <c r="D309" t="s">
-        <v>190</v>
-      </c>
-      <c r="E309" t="s">
-        <v>460</v>
-      </c>
-      <c r="F309" t="s">
-        <v>331</v>
-      </c>
-      <c r="G309" t="s">
-        <v>14</v>
-      </c>
-      <c r="H309" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="A311" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="B312" t="s">
-        <v>462</v>
-      </c>
-      <c r="C312" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D312" t="s">
-        <v>103</v>
-      </c>
-      <c r="E312" t="s">
-        <v>231</v>
-      </c>
-      <c r="F312" t="s">
-        <v>84</v>
-      </c>
-      <c r="G312" t="s">
-        <v>84</v>
-      </c>
-      <c r="H312" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="A314" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
-      <c r="B315" t="s">
-        <v>450</v>
-      </c>
-      <c r="C315" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="D315" t="s">
-        <v>464</v>
-      </c>
-      <c r="E315" t="s">
-        <v>195</v>
-      </c>
-      <c r="F315" t="s">
-        <v>14</v>
-      </c>
-      <c r="G315" t="s">
-        <v>14</v>
-      </c>
-      <c r="H315" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" t="s">
-        <v>465</v>
-      </c>
-    </row>
     <row r="318" spans="1:8">
-      <c r="B318" t="s">
-        <v>466</v>
-      </c>
-      <c r="C318" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D318" t="s">
-        <v>63</v>
-      </c>
-      <c r="E318" t="s">
-        <v>467</v>
-      </c>
-      <c r="F318" t="s">
-        <v>75</v>
-      </c>
-      <c r="G318" t="s">
-        <v>14</v>
-      </c>
-      <c r="H318" t="s">
-        <v>14</v>
+      <c r="A318" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="B319" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C319" t="n">
-        <v>3.059</v>
+        <v>3.107</v>
       </c>
       <c r="D319" t="s">
-        <v>469</v>
+        <v>190</v>
       </c>
       <c r="E319" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="F319" t="s">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="G319" t="s">
         <v>14</v>
       </c>
       <c r="H319" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="B320" t="s">
-        <v>471</v>
-      </c>
-      <c r="C320" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="D320" t="s">
-        <v>472</v>
-      </c>
-      <c r="E320" t="s">
-        <v>83</v>
-      </c>
-      <c r="F320" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="B322" t="s">
+        <v>477</v>
+      </c>
+      <c r="C322" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D322" t="s">
+        <v>103</v>
+      </c>
+      <c r="E322" t="s">
+        <v>231</v>
+      </c>
+      <c r="F322" t="s">
         <v>84</v>
       </c>
-      <c r="G320" t="s">
-        <v>473</v>
-      </c>
-      <c r="H320" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="A322" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
-      <c r="B323" t="s">
-        <v>475</v>
-      </c>
-      <c r="C323" t="n">
-        <v>2.864</v>
-      </c>
-      <c r="D323" t="s">
-        <v>94</v>
-      </c>
-      <c r="E323" t="s">
-        <v>91</v>
-      </c>
-      <c r="F323" t="s">
-        <v>180</v>
-      </c>
-      <c r="G323" t="s">
-        <v>14</v>
-      </c>
-      <c r="H323" t="s">
-        <v>181</v>
+      <c r="G322" t="s">
+        <v>84</v>
+      </c>
+      <c r="H322" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="325" spans="1:8">
-      <c r="A325" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="B326" t="s">
-        <v>477</v>
-      </c>
-      <c r="C326" t="n">
-        <v>3.818</v>
-      </c>
-      <c r="D326" t="s">
-        <v>478</v>
-      </c>
-      <c r="E326" t="s">
-        <v>10</v>
-      </c>
-      <c r="F326" t="s">
-        <v>14</v>
-      </c>
-      <c r="G326" t="s">
-        <v>14</v>
-      </c>
-      <c r="H326" t="s">
+      <c r="B325" t="s">
+        <v>465</v>
+      </c>
+      <c r="C325" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="D325" t="s">
+        <v>479</v>
+      </c>
+      <c r="E325" t="s">
+        <v>195</v>
+      </c>
+      <c r="F325" t="s">
+        <v>14</v>
+      </c>
+      <c r="G325" t="s">
+        <v>14</v>
+      </c>
+      <c r="H325" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="327" spans="1:8">
-      <c r="B327" t="s">
-        <v>479</v>
-      </c>
-      <c r="C327" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="D327" t="s">
+      <c r="A327" t="s">
         <v>480</v>
-      </c>
-      <c r="E327" t="s">
-        <v>481</v>
-      </c>
-      <c r="F327" t="s">
-        <v>48</v>
-      </c>
-      <c r="G327" t="s">
-        <v>14</v>
-      </c>
-      <c r="H327" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="B328" t="s">
+        <v>481</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D328" t="s">
+        <v>63</v>
+      </c>
+      <c r="E328" t="s">
         <v>482</v>
       </c>
-      <c r="C328" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D328" t="s">
-        <v>78</v>
-      </c>
-      <c r="E328" t="s">
-        <v>77</v>
-      </c>
       <c r="F328" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G328" t="s">
         <v>14</v>
@@ -5610,105 +5629,146 @@
         <v>14</v>
       </c>
     </row>
+    <row r="329" spans="1:8">
+      <c r="B329" t="s">
+        <v>483</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="D329" t="s">
+        <v>484</v>
+      </c>
+      <c r="E329" t="s">
+        <v>485</v>
+      </c>
+      <c r="F329" t="s">
+        <v>36</v>
+      </c>
+      <c r="G329" t="s">
+        <v>14</v>
+      </c>
+      <c r="H329" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="330" spans="1:8">
-      <c r="A330" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="B331" t="s">
-        <v>484</v>
-      </c>
-      <c r="C331" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D331" t="s">
-        <v>106</v>
-      </c>
-      <c r="E331" t="s">
-        <v>359</v>
-      </c>
-      <c r="F331" t="s">
-        <v>331</v>
-      </c>
-      <c r="G331" t="s">
-        <v>216</v>
-      </c>
-      <c r="H331" t="s">
+      <c r="B330" t="s">
+        <v>486</v>
+      </c>
+      <c r="C330" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="D330" t="s">
+        <v>487</v>
+      </c>
+      <c r="E330" t="s">
+        <v>83</v>
+      </c>
+      <c r="F330" t="s">
+        <v>84</v>
+      </c>
+      <c r="G330" t="s">
+        <v>488</v>
+      </c>
+      <c r="H330" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:8">
-      <c r="B332" t="s">
-        <v>485</v>
-      </c>
-      <c r="C332" t="n">
-        <v>3.292</v>
-      </c>
-      <c r="D332" t="s">
-        <v>467</v>
-      </c>
-      <c r="E332" t="s">
-        <v>74</v>
-      </c>
-      <c r="F332" t="s">
-        <v>188</v>
-      </c>
-      <c r="G332" t="s">
-        <v>14</v>
-      </c>
-      <c r="H332" t="s">
-        <v>14</v>
+      <c r="A332" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="B333" t="s">
+        <v>490</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D333" t="s">
+        <v>94</v>
+      </c>
+      <c r="E333" t="s">
+        <v>91</v>
+      </c>
+      <c r="F333" t="s">
+        <v>180</v>
+      </c>
+      <c r="G333" t="s">
+        <v>14</v>
+      </c>
+      <c r="H333" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="334" spans="1:8">
-      <c r="A334" t="s">
-        <v>486</v>
+      <c r="B334" t="s">
+        <v>491</v>
+      </c>
+      <c r="C334" t="n">
+        <v>3</v>
+      </c>
+      <c r="D334" t="s">
+        <v>125</v>
+      </c>
+      <c r="E334" t="s">
+        <v>63</v>
+      </c>
+      <c r="F334" t="s">
+        <v>126</v>
+      </c>
+      <c r="G334" t="s">
+        <v>126</v>
+      </c>
+      <c r="H334" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="B335" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C335" t="n">
-        <v>3.333</v>
+        <v>2.546</v>
       </c>
       <c r="D335" t="s">
-        <v>103</v>
+        <v>493</v>
       </c>
       <c r="E335" t="s">
-        <v>197</v>
+        <v>493</v>
       </c>
       <c r="F335" t="s">
-        <v>14</v>
+        <v>493</v>
       </c>
       <c r="G335" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="H335" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="338" spans="1:8">
       <c r="B338" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C338" t="n">
-        <v>2.846</v>
+        <v>3.818</v>
       </c>
       <c r="D338" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E338" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>491</v>
+        <v>14</v>
       </c>
       <c r="G338" t="s">
         <v>14</v>
@@ -5717,54 +5777,95 @@
         <v>14</v>
       </c>
     </row>
+    <row r="339" spans="1:8">
+      <c r="B339" t="s">
+        <v>497</v>
+      </c>
+      <c r="C339" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D339" t="s">
+        <v>498</v>
+      </c>
+      <c r="E339" t="s">
+        <v>499</v>
+      </c>
+      <c r="F339" t="s">
+        <v>48</v>
+      </c>
+      <c r="G339" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="340" spans="1:8">
-      <c r="A340" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="B341" t="s">
-        <v>493</v>
-      </c>
-      <c r="C341" t="n">
-        <v>4</v>
-      </c>
-      <c r="D341" t="s">
-        <v>22</v>
-      </c>
-      <c r="E341" t="s">
-        <v>14</v>
-      </c>
-      <c r="F341" t="s">
-        <v>14</v>
-      </c>
-      <c r="G341" t="s">
-        <v>14</v>
-      </c>
-      <c r="H341" t="s">
-        <v>14</v>
+      <c r="B340" t="s">
+        <v>500</v>
+      </c>
+      <c r="C340" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D340" t="s">
+        <v>78</v>
+      </c>
+      <c r="E340" t="s">
+        <v>77</v>
+      </c>
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s">
+        <v>14</v>
+      </c>
+      <c r="H340" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="343" spans="1:8">
-      <c r="A343" t="s">
-        <v>494</v>
+      <c r="B343" t="s">
+        <v>502</v>
+      </c>
+      <c r="C343" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D343" t="s">
+        <v>106</v>
+      </c>
+      <c r="E343" t="s">
+        <v>359</v>
+      </c>
+      <c r="F343" t="s">
+        <v>331</v>
+      </c>
+      <c r="G343" t="s">
+        <v>216</v>
+      </c>
+      <c r="H343" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="B344" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C344" t="n">
-        <v>4</v>
+        <v>3.292</v>
       </c>
       <c r="D344" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="E344" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F344" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="G344" t="s">
         <v>14</v>
@@ -5775,131 +5876,294 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
     <row r="347" spans="1:8">
       <c r="B347" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="C347" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D347" t="s">
+        <v>103</v>
+      </c>
+      <c r="E347" t="s">
+        <v>197</v>
+      </c>
+      <c r="F347" t="s">
+        <v>14</v>
+      </c>
+      <c r="G347" t="s">
+        <v>14</v>
+      </c>
+      <c r="H347" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="B350" t="s">
+        <v>507</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="D350" t="s">
+        <v>508</v>
+      </c>
+      <c r="E350" t="s">
+        <v>174</v>
+      </c>
+      <c r="F350" t="s">
+        <v>509</v>
+      </c>
+      <c r="G350" t="s">
+        <v>14</v>
+      </c>
+      <c r="H350" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="B353" t="s">
+        <v>511</v>
+      </c>
+      <c r="C353" t="n">
+        <v>4</v>
+      </c>
+      <c r="D353" t="s">
+        <v>22</v>
+      </c>
+      <c r="E353" t="s">
+        <v>14</v>
+      </c>
+      <c r="F353" t="s">
+        <v>14</v>
+      </c>
+      <c r="G353" t="s">
+        <v>14</v>
+      </c>
+      <c r="H353" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="B356" t="s">
+        <v>511</v>
+      </c>
+      <c r="C356" t="n">
+        <v>4</v>
+      </c>
+      <c r="D356" t="s">
+        <v>22</v>
+      </c>
+      <c r="E356" t="s">
+        <v>14</v>
+      </c>
+      <c r="F356" t="s">
+        <v>14</v>
+      </c>
+      <c r="G356" t="s">
+        <v>14</v>
+      </c>
+      <c r="H356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="B359" t="s">
+        <v>514</v>
+      </c>
+      <c r="C359" t="n">
         <v>3.711</v>
       </c>
-      <c r="D347" t="s">
-        <v>497</v>
-      </c>
-      <c r="E347" t="s">
-        <v>498</v>
-      </c>
-      <c r="F347" t="s">
-        <v>14</v>
-      </c>
-      <c r="G347" t="s">
-        <v>14</v>
-      </c>
-      <c r="H347" t="s">
+      <c r="D359" t="s">
+        <v>515</v>
+      </c>
+      <c r="E359" t="s">
+        <v>516</v>
+      </c>
+      <c r="F359" t="s">
+        <v>14</v>
+      </c>
+      <c r="G359" t="s">
+        <v>14</v>
+      </c>
+      <c r="H359" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
-      <c r="B348" t="s">
-        <v>499</v>
-      </c>
-      <c r="C348" t="n">
+    <row r="360" spans="1:8">
+      <c r="B360" t="s">
+        <v>517</v>
+      </c>
+      <c r="C360" t="n">
         <v>3.368</v>
       </c>
-      <c r="D348" t="s">
-        <v>500</v>
-      </c>
-      <c r="E348" t="s">
-        <v>501</v>
-      </c>
-      <c r="F348" t="s">
-        <v>502</v>
-      </c>
-      <c r="G348" t="s">
-        <v>503</v>
-      </c>
-      <c r="H348" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
-      <c r="B349" t="s">
-        <v>505</v>
-      </c>
-      <c r="C349" t="n">
+      <c r="D360" t="s">
+        <v>518</v>
+      </c>
+      <c r="E360" t="s">
+        <v>519</v>
+      </c>
+      <c r="F360" t="s">
+        <v>520</v>
+      </c>
+      <c r="G360" t="s">
+        <v>521</v>
+      </c>
+      <c r="H360" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="B361" t="s">
+        <v>523</v>
+      </c>
+      <c r="C361" t="n">
         <v>2.941</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D361" t="s">
         <v>383</v>
       </c>
-      <c r="E349" t="s">
+      <c r="E361" t="s">
         <v>63</v>
       </c>
-      <c r="F349" t="s">
-        <v>506</v>
-      </c>
-      <c r="G349" t="s">
-        <v>507</v>
-      </c>
-      <c r="H349" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
-      <c r="A351" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
-      <c r="B352" t="s">
-        <v>456</v>
-      </c>
-      <c r="C352" t="n">
+      <c r="F361" t="s">
+        <v>524</v>
+      </c>
+      <c r="G361" t="s">
+        <v>525</v>
+      </c>
+      <c r="H361" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="B364" t="s">
+        <v>471</v>
+      </c>
+      <c r="C364" t="n">
         <v>3.9</v>
       </c>
-      <c r="D352" t="s">
-        <v>509</v>
-      </c>
-      <c r="E352" t="s">
+      <c r="D364" t="s">
+        <v>527</v>
+      </c>
+      <c r="E364" t="s">
         <v>126</v>
       </c>
-      <c r="F352" t="s">
-        <v>14</v>
-      </c>
-      <c r="G352" t="s">
-        <v>14</v>
-      </c>
-      <c r="H352" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
-      <c r="A354" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="B355" t="s">
-        <v>511</v>
-      </c>
-      <c r="C355" t="n">
+      <c r="F364" t="s">
+        <v>14</v>
+      </c>
+      <c r="G364" t="s">
+        <v>14</v>
+      </c>
+      <c r="H364" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="B367" t="s">
+        <v>529</v>
+      </c>
+      <c r="C367" t="n">
         <v>3.625</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D367" t="s">
         <v>213</v>
       </c>
-      <c r="E355" t="s">
-        <v>467</v>
-      </c>
-      <c r="F355" t="s">
-        <v>14</v>
-      </c>
-      <c r="G355" t="s">
-        <v>14</v>
-      </c>
-      <c r="H355" t="s">
+      <c r="E367" t="s">
+        <v>482</v>
+      </c>
+      <c r="F367" t="s">
+        <v>14</v>
+      </c>
+      <c r="G367" t="s">
+        <v>14</v>
+      </c>
+      <c r="H367" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="B368" t="s">
+        <v>400</v>
+      </c>
+      <c r="C368" t="n">
+        <v>3</v>
+      </c>
+      <c r="D368" t="s">
+        <v>39</v>
+      </c>
+      <c r="E368" t="s">
+        <v>530</v>
+      </c>
+      <c r="F368" t="s">
+        <v>188</v>
+      </c>
+      <c r="G368" t="s">
+        <v>188</v>
+      </c>
+      <c r="H368" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="B371" t="s">
+        <v>402</v>
+      </c>
+      <c r="C371" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D371" t="s">
+        <v>166</v>
+      </c>
+      <c r="E371" t="s">
+        <v>488</v>
+      </c>
+      <c r="F371" t="s">
+        <v>14</v>
+      </c>
+      <c r="G371" t="s">
+        <v>14</v>
+      </c>
+      <c r="H371" t="s">
         <v>14</v>
       </c>
     </row>
